--- a/doc/APC-GTFS.xlsx
+++ b/doc/APC-GTFS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ro2_apc" sheetId="1" state="hidden" r:id="rId1"/>
@@ -23,9 +23,6 @@
     <sheet name="b_2_apc" sheetId="7" state="hidden" r:id="rId14"/>
     <sheet name="b_2_gtfs" sheetId="8" state="hidden" r:id="rId15"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId16"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">hour_merge!#REF!</definedName>
   </definedNames>
@@ -1979,42 +1976,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>month_merge!$B$2:$B$12</c:f>
+              <c:f>month_merge!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.3888333333333334</c:v>
+                  <c:v>3.9231666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1751666666666667</c:v>
+                  <c:v>3.4316666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5666666666666669</c:v>
+                  <c:v>3.5215000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9994999999999998</c:v>
+                  <c:v>3.8800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2701666666666669</c:v>
+                  <c:v>4.1795</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4356666666666666</c:v>
+                  <c:v>3.5985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3448333333333329</c:v>
+                  <c:v>4.3491666666666662</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0766666666666667</c:v>
+                  <c:v>4.153833333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1661666666666664</c:v>
+                  <c:v>4.1875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1091666666666669</c:v>
+                  <c:v>3.3935000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2314999999999996</c:v>
+                  <c:v>2.9376666666666664</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3136666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2095,42 +2095,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>month_merge!$C$2:$C$12</c:f>
+              <c:f>month_merge!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>6.58</c:v>
+                  <c:v>7.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.34</c:v>
+                  <c:v>6.660000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.98</c:v>
+                  <c:v>6.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.66</c:v>
+                  <c:v>7.2700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2</c:v>
+                  <c:v>7.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.78</c:v>
+                  <c:v>6.87</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.01</c:v>
+                  <c:v>8.23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.74</c:v>
+                  <c:v>8.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.9600000000000009</c:v>
+                  <c:v>8.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0500000000000007</c:v>
+                  <c:v>6.7299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.78</c:v>
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2221,31 +2224,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="3">
-                  <c:v>4.9178333333333333</c:v>
+                  <c:v>4.4283333333333328</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9084999999999996</c:v>
+                  <c:v>4.9543333333333335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2545000000000002</c:v>
+                  <c:v>4.3261666666666665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0679999999999996</c:v>
+                  <c:v>5.0908333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6955</c:v>
+                  <c:v>4.8711666666666664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7540000000000004</c:v>
+                  <c:v>4.782</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6979999999999995</c:v>
+                  <c:v>5.1733333333333329</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1671666666666667</c:v>
+                  <c:v>3.5665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7395</c:v>
+                  <c:v>3.9063333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2336,31 +2339,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="3">
-                  <c:v>9.1999999999999993</c:v>
+                  <c:v>8.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.24</c:v>
+                  <c:v>9.2200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.15</c:v>
+                  <c:v>8.19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.27</c:v>
+                  <c:v>9.5500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.8500000000000005</c:v>
+                  <c:v>9.34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0399999999999991</c:v>
+                  <c:v>9.1800000000000015</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.1300000000000008</c:v>
+                  <c:v>8.73</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.34</c:v>
+                  <c:v>7.0000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.7799999999999994</c:v>
+                  <c:v>7.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2439,6 +2442,7 @@
         <c:axId val="450161992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4288,16 +4292,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4319,489 +4323,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="all"/>
-      <sheetName val="all_distribution"/>
-      <sheetName val="dedicated_timeseries"/>
-      <sheetName val="dedicated_diff_compare_method"/>
-      <sheetName val="dedicated_diff_direct_method"/>
-      <sheetName val="dedicated_a_and_b_direct_method"/>
-      <sheetName val="dedicated_nov"/>
-      <sheetName val="dedicated_a_and_b"/>
-      <sheetName val="dedicated_a_b_ttp"/>
-      <sheetName val="dedicated_transfer_risk"/>
-      <sheetName val="dedicated_tr"/>
-      <sheetName val="ded_tr_plot"/>
-      <sheetName val="month"/>
-      <sheetName val="hour"/>
-      <sheetName val="weekday"/>
-      <sheetName val="rain"/>
-      <sheetName val="football"/>
-      <sheetName val="attp_diff_distribution"/>
-      <sheetName val="attp_diff_distribution_log"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Average Total Time Penalty (minutes)</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Transfer Risk (%)</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Feb</v>
-          </cell>
-          <cell r="B2">
-            <v>3.3888333333333334</v>
-          </cell>
-          <cell r="C2">
-            <v>6.58</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Mar</v>
-          </cell>
-          <cell r="B3">
-            <v>3.1751666666666667</v>
-          </cell>
-          <cell r="C3">
-            <v>6.34</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Apr</v>
-          </cell>
-          <cell r="B4">
-            <v>3.5666666666666669</v>
-          </cell>
-          <cell r="C4">
-            <v>6.98</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>May</v>
-          </cell>
-          <cell r="B5">
-            <v>3.9994999999999998</v>
-          </cell>
-          <cell r="C5">
-            <v>7.66</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Jun</v>
-          </cell>
-          <cell r="B6">
-            <v>3.2701666666666669</v>
-          </cell>
-          <cell r="C6">
-            <v>6.2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Jul</v>
-          </cell>
-          <cell r="B7">
-            <v>3.4356666666666666</v>
-          </cell>
-          <cell r="C7">
-            <v>6.78</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Aug</v>
-          </cell>
-          <cell r="B8">
-            <v>5.3448333333333329</v>
-          </cell>
-          <cell r="C8">
-            <v>10.01</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Sep</v>
-          </cell>
-          <cell r="B9">
-            <v>3.0766666666666667</v>
-          </cell>
-          <cell r="C9">
-            <v>5.74</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Oct</v>
-          </cell>
-          <cell r="B10">
-            <v>4.1661666666666664</v>
-          </cell>
-          <cell r="C10">
-            <v>7.9600000000000009</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Nov</v>
-          </cell>
-          <cell r="B11">
-            <v>4.1091666666666669</v>
-          </cell>
-          <cell r="C11">
-            <v>8.0500000000000007</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Dec</v>
-          </cell>
-          <cell r="B12">
-            <v>2.2314999999999996</v>
-          </cell>
-          <cell r="C12">
-            <v>4.78</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Average Total Time Penalty (minutes)</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Transfer Risk (%)</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>0.20833333333333334</v>
-          </cell>
-          <cell r="B2">
-            <v>1.8496666666666668</v>
-          </cell>
-          <cell r="C2">
-            <v>3.17</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>0.25</v>
-          </cell>
-          <cell r="B3">
-            <v>2.3556666666666666</v>
-          </cell>
-          <cell r="C3">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>0.29166666666666702</v>
-          </cell>
-          <cell r="B4">
-            <v>2.9855</v>
-          </cell>
-          <cell r="C4">
-            <v>6.47</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="B5">
-            <v>3.3673333333333333</v>
-          </cell>
-          <cell r="C5">
-            <v>6.94</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>0.375</v>
-          </cell>
-          <cell r="B6">
-            <v>3.2633333333333336</v>
-          </cell>
-          <cell r="C6">
-            <v>6.49</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>0.41666666666666702</v>
-          </cell>
-          <cell r="B7">
-            <v>3.1390000000000002</v>
-          </cell>
-          <cell r="C7">
-            <v>5.99</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>0.45833333333333298</v>
-          </cell>
-          <cell r="B8">
-            <v>3.3028333333333331</v>
-          </cell>
-          <cell r="C8">
-            <v>6.370000000000001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>0.5</v>
-          </cell>
-          <cell r="B9">
-            <v>3.4863333333333335</v>
-          </cell>
-          <cell r="C9">
-            <v>6.93</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>0.54166666666666696</v>
-          </cell>
-          <cell r="B10">
-            <v>3.5451666666666668</v>
-          </cell>
-          <cell r="C10">
-            <v>7.1400000000000006</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>0.58333333333333304</v>
-          </cell>
-          <cell r="B11">
-            <v>4.2473333333333336</v>
-          </cell>
-          <cell r="C11">
-            <v>7.68</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>0.625</v>
-          </cell>
-          <cell r="B12">
-            <v>4.5409999999999995</v>
-          </cell>
-          <cell r="C12">
-            <v>8.48</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>0.66666666666666696</v>
-          </cell>
-          <cell r="B13">
-            <v>5.1028333333333338</v>
-          </cell>
-          <cell r="C13">
-            <v>9.41</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>0.70833333333333304</v>
-          </cell>
-          <cell r="B14">
-            <v>5.1710000000000003</v>
-          </cell>
-          <cell r="C14">
-            <v>10.15</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>0.75</v>
-          </cell>
-          <cell r="B15">
-            <v>4.5486666666666666</v>
-          </cell>
-          <cell r="C15">
-            <v>9.1800000000000015</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>0.79166666666666696</v>
-          </cell>
-          <cell r="B16">
-            <v>3.846166666666667</v>
-          </cell>
-          <cell r="C16">
-            <v>7.4399999999999995</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="B17">
-            <v>3.7611666666666665</v>
-          </cell>
-          <cell r="C17">
-            <v>6.08</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>0.875</v>
-          </cell>
-          <cell r="B18">
-            <v>3.9689999999999999</v>
-          </cell>
-          <cell r="C18">
-            <v>5.7700000000000005</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>0.91666666666666696</v>
-          </cell>
-          <cell r="B19">
-            <v>4.4671666666666665</v>
-          </cell>
-          <cell r="C19">
-            <v>6.1</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>0.95833333333333304</v>
-          </cell>
-          <cell r="B20">
-            <v>4.6860000000000008</v>
-          </cell>
-          <cell r="C20">
-            <v>6.5600000000000005</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Average Total Time Penalty (minutes)</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Transfer Risk (%)</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Mon</v>
-          </cell>
-          <cell r="B2">
-            <v>3.4506666666666663</v>
-          </cell>
-          <cell r="C2">
-            <v>6.7299999999999995</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Tue</v>
-          </cell>
-          <cell r="B3">
-            <v>3.7636666666666665</v>
-          </cell>
-          <cell r="C3">
-            <v>7.24</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Wed</v>
-          </cell>
-          <cell r="B4">
-            <v>3.8285</v>
-          </cell>
-          <cell r="C4">
-            <v>7.28</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Thu</v>
-          </cell>
-          <cell r="B5">
-            <v>3.9910000000000001</v>
-          </cell>
-          <cell r="C5">
-            <v>7.5600000000000005</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Fri</v>
-          </cell>
-          <cell r="B6">
-            <v>4.2840000000000007</v>
-          </cell>
-          <cell r="C6">
-            <v>8.129999999999999</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Sat</v>
-          </cell>
-          <cell r="B7">
-            <v>3.5513333333333335</v>
-          </cell>
-          <cell r="C7">
-            <v>6.8900000000000006</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Sun</v>
-          </cell>
-          <cell r="B8">
-            <v>3.1508333333333334</v>
-          </cell>
-          <cell r="C8">
-            <v>5.81</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10676,7 +10197,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10715,16 +10236,16 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>3.3888333333333334</v>
+        <v>3.9231666666666665</v>
       </c>
       <c r="C2">
-        <v>6.58</v>
+        <v>7.26</v>
       </c>
       <c r="D2">
         <v>1006</v>
       </c>
       <c r="E2">
-        <v>262099</v>
+        <v>7020569</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -10732,16 +10253,16 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>3.1751666666666667</v>
+        <v>3.4316666666666666</v>
       </c>
       <c r="C3">
-        <v>6.34</v>
+        <v>6.660000000000001</v>
       </c>
       <c r="D3">
         <v>1006</v>
       </c>
       <c r="E3">
-        <v>183887</v>
+        <v>7375952</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -10749,16 +10270,16 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>3.5666666666666669</v>
+        <v>3.5215000000000001</v>
       </c>
       <c r="C4">
-        <v>6.98</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="D4">
         <v>1008</v>
       </c>
       <c r="E4">
-        <v>263099</v>
+        <v>7254681</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -10766,31 +10287,31 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>3.9994999999999998</v>
+        <v>3.8800000000000003</v>
       </c>
       <c r="C5">
-        <v>7.66</v>
+        <v>7.2700000000000005</v>
       </c>
       <c r="D5">
         <v>1030</v>
       </c>
       <c r="E5">
-        <v>260352</v>
+        <v>7044096</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
       <c r="H5">
-        <v>4.9178333333333333</v>
+        <v>4.4283333333333328</v>
       </c>
       <c r="I5">
-        <v>9.1999999999999993</v>
+        <v>8.24</v>
       </c>
       <c r="J5">
         <v>1029</v>
       </c>
       <c r="K5">
-        <v>260123</v>
+        <v>5767481</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -10798,31 +10319,31 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>3.2701666666666669</v>
+        <v>4.1795</v>
       </c>
       <c r="C6">
-        <v>6.2</v>
+        <v>7.82</v>
       </c>
       <c r="D6">
         <v>1029</v>
       </c>
       <c r="E6">
-        <v>234404</v>
+        <v>7529082</v>
       </c>
       <c r="G6">
         <v>6</v>
       </c>
       <c r="H6">
-        <v>3.9084999999999996</v>
+        <v>4.9543333333333335</v>
       </c>
       <c r="I6">
-        <v>7.24</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="J6">
         <v>1029</v>
       </c>
       <c r="K6">
-        <v>234265</v>
+        <v>7523571</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -10830,31 +10351,31 @@
         <v>24</v>
       </c>
       <c r="B7">
-        <v>3.4356666666666666</v>
+        <v>3.5985</v>
       </c>
       <c r="C7">
-        <v>6.78</v>
+        <v>6.87</v>
       </c>
       <c r="D7">
         <v>1025</v>
       </c>
       <c r="E7">
-        <v>255518</v>
+        <v>6735771</v>
       </c>
       <c r="G7">
         <v>7</v>
       </c>
       <c r="H7">
-        <v>4.2545000000000002</v>
+        <v>4.3261666666666665</v>
       </c>
       <c r="I7">
-        <v>8.15</v>
+        <v>8.19</v>
       </c>
       <c r="J7">
         <v>1025</v>
       </c>
       <c r="K7">
-        <v>255304</v>
+        <v>6730229</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -10862,31 +10383,31 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>5.3448333333333329</v>
+        <v>4.3491666666666662</v>
       </c>
       <c r="C8">
-        <v>10.01</v>
+        <v>8.23</v>
       </c>
       <c r="D8">
         <v>1027</v>
       </c>
       <c r="E8">
-        <v>258847</v>
+        <v>7721557</v>
       </c>
       <c r="G8">
         <v>8</v>
       </c>
       <c r="H8">
-        <v>6.0679999999999996</v>
+        <v>5.0908333333333333</v>
       </c>
       <c r="I8">
-        <v>11.27</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="J8">
         <v>1027</v>
       </c>
       <c r="K8">
-        <v>258627</v>
+        <v>7715900</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -10894,31 +10415,31 @@
         <v>26</v>
       </c>
       <c r="B9">
-        <v>3.0766666666666667</v>
+        <v>4.153833333333333</v>
       </c>
       <c r="C9">
-        <v>5.74</v>
+        <v>8.06</v>
       </c>
       <c r="D9">
         <v>1028</v>
       </c>
       <c r="E9">
-        <v>202110</v>
+        <v>5653496</v>
       </c>
       <c r="G9">
         <v>9</v>
       </c>
       <c r="H9">
-        <v>3.6955</v>
+        <v>4.8711666666666664</v>
       </c>
       <c r="I9">
-        <v>6.8500000000000005</v>
+        <v>9.34</v>
       </c>
       <c r="J9">
         <v>1028</v>
       </c>
       <c r="K9">
-        <v>202058</v>
+        <v>6270341</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -10926,31 +10447,31 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>4.1661666666666664</v>
+        <v>4.1875</v>
       </c>
       <c r="C10">
-        <v>7.9600000000000009</v>
+        <v>8.08</v>
       </c>
       <c r="D10">
         <v>1028</v>
       </c>
       <c r="E10">
-        <v>227199</v>
+        <v>7383244</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
       <c r="H10">
-        <v>4.7540000000000004</v>
+        <v>4.782</v>
       </c>
       <c r="I10">
-        <v>9.0399999999999991</v>
+        <v>9.1800000000000015</v>
       </c>
       <c r="J10">
         <v>1028</v>
       </c>
       <c r="K10">
-        <v>227042</v>
+        <v>7378971</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -10958,31 +10479,31 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>4.1091666666666669</v>
+        <v>3.3935000000000004</v>
       </c>
       <c r="C11">
-        <v>8.0500000000000007</v>
+        <v>6.7299999999999995</v>
       </c>
       <c r="D11">
         <v>1028</v>
       </c>
       <c r="E11">
-        <v>259623</v>
+        <v>6587300</v>
       </c>
       <c r="G11">
         <v>11</v>
       </c>
       <c r="H11">
-        <v>4.6979999999999995</v>
+        <v>5.1733333333333329</v>
       </c>
       <c r="I11">
-        <v>9.1300000000000008</v>
+        <v>8.73</v>
       </c>
       <c r="J11">
         <v>1028</v>
       </c>
       <c r="K11">
-        <v>259471</v>
+        <v>6845481</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -10990,51 +10511,63 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>2.2314999999999996</v>
+        <v>2.9376666666666664</v>
       </c>
       <c r="C12">
-        <v>4.78</v>
+        <v>5.82</v>
       </c>
       <c r="D12">
         <v>1025</v>
       </c>
       <c r="E12">
-        <v>254596</v>
+        <v>7289034</v>
       </c>
       <c r="G12">
         <v>12</v>
       </c>
       <c r="H12">
-        <v>3.1671666666666667</v>
+        <v>3.5665</v>
       </c>
       <c r="I12">
-        <v>6.34</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="J12">
         <v>1025</v>
       </c>
       <c r="K12">
-        <v>254238</v>
+        <v>7283662</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
+      <c r="B13">
+        <v>3.3136666666666668</v>
+      </c>
+      <c r="C13">
+        <v>6.08</v>
+      </c>
+      <c r="D13">
+        <v>1029</v>
+      </c>
+      <c r="E13">
+        <v>6729657</v>
+      </c>
       <c r="G13">
         <v>13</v>
       </c>
       <c r="H13">
-        <v>2.7395</v>
+        <v>3.9063333333333334</v>
       </c>
       <c r="I13">
-        <v>5.7799999999999994</v>
+        <v>7.39</v>
       </c>
       <c r="J13">
         <v>1029</v>
       </c>
       <c r="K13">
-        <v>260544</v>
+        <v>6978768</v>
       </c>
     </row>
   </sheetData>
@@ -55845,8 +55378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56904,8 +56437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/APC-GTFS.xlsx
+++ b/doc/APC-GTFS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ro2_apc" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1012,7 +1012,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1116,7 +1115,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2505,7 +2503,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -38638,7 +38635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I271"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A255" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -49788,15 +49785,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I271"/>
+  <dimension ref="A2:M275"/>
   <sheetViews>
-    <sheetView topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="I271" sqref="I271"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="N273" sqref="N273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20180507</v>
       </c>
@@ -49816,8 +49813,12 @@
         <f t="shared" ref="G2:G65" si="0">D2*C2</f>
         <v>71600438</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>E2*C2</f>
+        <v>21963.005999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20180508</v>
       </c>
@@ -49837,8 +49838,12 @@
         <f t="shared" si="0"/>
         <v>71180557.709999993</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="1">E3*C3</f>
+        <v>22472.360999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20180509</v>
       </c>
@@ -49858,8 +49863,12 @@
         <f t="shared" si="0"/>
         <v>67887145.61999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>20642.588400000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20180510</v>
       </c>
@@ -49879,8 +49888,12 @@
         <f t="shared" si="0"/>
         <v>69047312.399999991</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>21356.698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20180511</v>
       </c>
@@ -49900,8 +49913,12 @@
         <f t="shared" si="0"/>
         <v>65991265.199999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>19867.3125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20180512</v>
       </c>
@@ -49921,8 +49938,12 @@
         <f t="shared" si="0"/>
         <v>50748931.920000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>15573.999200000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20180513</v>
       </c>
@@ -49942,8 +49963,12 @@
         <f t="shared" si="0"/>
         <v>38509406.670000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>11519.361000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20180514</v>
       </c>
@@ -49963,8 +49988,12 @@
         <f t="shared" si="0"/>
         <v>54945862.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>17305.054800000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20180515</v>
       </c>
@@ -49984,8 +50013,12 @@
         <f t="shared" si="0"/>
         <v>74493083.280000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>21537.2703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20180516</v>
       </c>
@@ -50005,8 +50038,12 @@
         <f t="shared" si="0"/>
         <v>66414354.959999993</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>20048.589600000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20180517</v>
       </c>
@@ -50026,8 +50063,12 @@
         <f t="shared" si="0"/>
         <v>71380682.489999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>22438.811399999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20180518</v>
       </c>
@@ -50047,8 +50088,12 @@
         <f t="shared" si="0"/>
         <v>73351862.100000009</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>22604.579999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20180519</v>
       </c>
@@ -50068,8 +50113,12 @@
         <f t="shared" si="0"/>
         <v>57426040.439999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>19284.355800000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20180520</v>
       </c>
@@ -50089,8 +50138,12 @@
         <f t="shared" si="0"/>
         <v>50094693.329999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>15221.629499999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20180521</v>
       </c>
@@ -50110,8 +50163,12 @@
         <f t="shared" si="0"/>
         <v>60662424.100000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>20269.129499999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20180522</v>
       </c>
@@ -50131,8 +50188,12 @@
         <f t="shared" si="0"/>
         <v>67834046.280000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>21771.149399999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20180523</v>
       </c>
@@ -50152,8 +50213,12 @@
         <f t="shared" si="0"/>
         <v>73938089.200000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>22919.667999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20180524</v>
       </c>
@@ -50173,8 +50238,12 @@
         <f t="shared" si="0"/>
         <v>68030247.820000008</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>21072.803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20180525</v>
       </c>
@@ -50194,8 +50263,12 @@
         <f t="shared" si="0"/>
         <v>69838869.320000008</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>21335.914400000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20180526</v>
       </c>
@@ -50215,8 +50288,12 @@
         <f t="shared" si="0"/>
         <v>47572193.699999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>15364.614500000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20180527</v>
       </c>
@@ -50236,8 +50313,12 @@
         <f t="shared" si="0"/>
         <v>42704365.199999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>12875.688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20180528</v>
       </c>
@@ -50248,8 +50329,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20180529</v>
       </c>
@@ -50269,8 +50354,12 @@
         <f t="shared" si="0"/>
         <v>64574257.399999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>21110.212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20180530</v>
       </c>
@@ -50290,8 +50379,12 @@
         <f t="shared" si="0"/>
         <v>77409016.179999992</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>22664.393200000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20180531</v>
       </c>
@@ -50311,8 +50404,12 @@
         <f t="shared" si="0"/>
         <v>76754493.609999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>23931.315999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20180601</v>
       </c>
@@ -50332,8 +50429,12 @@
         <f t="shared" si="0"/>
         <v>82042874.760000005</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>26222.918399999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20180602</v>
       </c>
@@ -50353,8 +50454,12 @@
         <f t="shared" si="0"/>
         <v>73039945.150000006</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>22844.4329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20180603</v>
       </c>
@@ -50374,8 +50479,12 @@
         <f t="shared" si="0"/>
         <v>41807982.420000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>12559.4712</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20180604</v>
       </c>
@@ -50395,8 +50504,12 @@
         <f t="shared" si="0"/>
         <v>67362784</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>21440.761599999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20180605</v>
       </c>
@@ -50416,8 +50529,12 @@
         <f t="shared" si="0"/>
         <v>69175749.719999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>22562.9218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20180606</v>
       </c>
@@ -50437,8 +50554,12 @@
         <f t="shared" si="0"/>
         <v>73677252</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>23350.829600000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20180607</v>
       </c>
@@ -50458,8 +50579,12 @@
         <f t="shared" si="0"/>
         <v>77427877.320000008</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>23421.921000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20180608</v>
       </c>
@@ -50479,8 +50604,12 @@
         <f t="shared" si="0"/>
         <v>82512811.260000005</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>24134.763299999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20180609</v>
       </c>
@@ -50500,8 +50629,12 @@
         <f t="shared" si="0"/>
         <v>61340040.079999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>19985.763600000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20180610</v>
       </c>
@@ -50521,8 +50654,12 @@
         <f t="shared" si="0"/>
         <v>46043814.960000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>13518.720600000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20180611</v>
       </c>
@@ -50542,8 +50679,12 @@
         <f t="shared" si="0"/>
         <v>55453642.739999995</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>17179.656300000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20180612</v>
       </c>
@@ -50563,8 +50704,12 @@
         <f t="shared" si="0"/>
         <v>73283933.030000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>23392.091800000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>20180613</v>
       </c>
@@ -50584,8 +50729,12 @@
         <f t="shared" si="0"/>
         <v>97011351.780000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>28509.055400000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>20180614</v>
       </c>
@@ -50605,8 +50754,12 @@
         <f t="shared" si="0"/>
         <v>102358588.68000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>30470.669099999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>20180615</v>
       </c>
@@ -50626,8 +50779,12 @@
         <f t="shared" si="0"/>
         <v>114189420.14999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>32853.190499999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>20180616</v>
       </c>
@@ -50647,8 +50804,12 @@
         <f t="shared" si="0"/>
         <v>76105039.120000005</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>24730.554400000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20180617</v>
       </c>
@@ -50668,8 +50829,12 @@
         <f t="shared" si="0"/>
         <v>42577092.25</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>12955.827499999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20180618</v>
       </c>
@@ -50689,8 +50854,12 @@
         <f t="shared" si="0"/>
         <v>59390725.140000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>19626.468000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20180619</v>
       </c>
@@ -50710,8 +50879,12 @@
         <f t="shared" si="0"/>
         <v>66753404.219999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>21766.848399999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>20180620</v>
       </c>
@@ -50731,8 +50904,12 @@
         <f t="shared" si="0"/>
         <v>70583971.100000009</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>23213.479600000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>20180621</v>
       </c>
@@ -50752,8 +50929,12 @@
         <f t="shared" si="0"/>
         <v>105474051.33999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>30197.760200000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20180622</v>
       </c>
@@ -50773,8 +50954,12 @@
         <f t="shared" si="0"/>
         <v>72075164.459999993</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>22182.555199999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20180623</v>
       </c>
@@ -50794,8 +50979,12 @@
         <f t="shared" si="0"/>
         <v>75784538.659999996</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>23720.754700000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20180624</v>
       </c>
@@ -50815,8 +51004,12 @@
         <f t="shared" si="0"/>
         <v>52878880.979999997</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>16044.8022</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>20180625</v>
       </c>
@@ -50836,8 +51029,12 @@
         <f t="shared" si="0"/>
         <v>59251078.560000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>20444.843400000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>20180626</v>
       </c>
@@ -50857,8 +51054,12 @@
         <f t="shared" si="0"/>
         <v>88844616.200000003</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>26718.639999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>20180627</v>
       </c>
@@ -50878,8 +51079,12 @@
         <f t="shared" si="0"/>
         <v>64570445.100000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>20642.857899999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20180628</v>
       </c>
@@ -50899,8 +51104,12 @@
         <f t="shared" si="0"/>
         <v>69724528.280000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>21854.6152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20180629</v>
       </c>
@@ -50920,8 +51129,12 @@
         <f t="shared" si="0"/>
         <v>84008344.160000011</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>26448.142399999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20180630</v>
       </c>
@@ -50941,8 +51154,12 @@
         <f t="shared" si="0"/>
         <v>54937485.149999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>16960.786</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>20180701</v>
       </c>
@@ -50962,8 +51179,12 @@
         <f t="shared" si="0"/>
         <v>43253342.580000006</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>13001.8833</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>20180702</v>
       </c>
@@ -50983,8 +51204,12 @@
         <f t="shared" si="0"/>
         <v>63574847.119999997</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>20065.5834</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20180703</v>
       </c>
@@ -50995,8 +51220,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>20180704</v>
       </c>
@@ -51007,8 +51236,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>20180705</v>
       </c>
@@ -51028,8 +51261,12 @@
         <f t="shared" si="0"/>
         <v>58342937.190000005</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>19300.569200000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20180706</v>
       </c>
@@ -51049,8 +51286,12 @@
         <f t="shared" si="0"/>
         <v>69109538.189999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <f t="shared" si="1"/>
+        <v>21591.108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>20180707</v>
       </c>
@@ -51070,8 +51311,12 @@
         <f t="shared" si="0"/>
         <v>63012456.000000007</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>19427.962499999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>20180708</v>
       </c>
@@ -51091,8 +51336,12 @@
         <f t="shared" si="0"/>
         <v>43411524.530000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <f t="shared" si="1"/>
+        <v>13129.0082</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>20180709</v>
       </c>
@@ -51112,8 +51361,12 @@
         <f t="shared" si="0"/>
         <v>65783187.57</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <f t="shared" si="1"/>
+        <v>21358.680899999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>20180710</v>
       </c>
@@ -51121,11 +51374,15 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G129" si="1">D66*C66</f>
+        <f t="shared" ref="G66:G129" si="2">D66*C66</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>20180711</v>
       </c>
@@ -51142,11 +51399,15 @@
         <v>8.3699999999999997E-2</v>
       </c>
       <c r="G67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67631546.289999992</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <f t="shared" ref="I67:I130" si="3">E67*C67</f>
+        <v>21506.631300000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>20180712</v>
       </c>
@@ -51163,11 +51424,15 @@
         <v>9.0899999999999995E-2</v>
       </c>
       <c r="G68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71885754.599999994</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <f t="shared" si="3"/>
+        <v>23141.322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>20180713</v>
       </c>
@@ -51184,11 +51449,15 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="G69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68174326.219999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <f t="shared" si="3"/>
+        <v>21798.545999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>20180714</v>
       </c>
@@ -51205,11 +51474,15 @@
         <v>7.6100000000000001E-2</v>
       </c>
       <c r="G70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54522940.079999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <f t="shared" si="3"/>
+        <v>16965.962299999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>20180715</v>
       </c>
@@ -51226,11 +51499,15 @@
         <v>6.7599999999999993E-2</v>
       </c>
       <c r="G71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44433011.25</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <f t="shared" si="3"/>
+        <v>13765.05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>20180716</v>
       </c>
@@ -51247,11 +51524,15 @@
         <v>9.0300000000000005E-2</v>
       </c>
       <c r="G72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74383078.320000008</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <f t="shared" si="3"/>
+        <v>23158.1574</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>20180717</v>
       </c>
@@ -51268,11 +51549,15 @@
         <v>8.3799999999999999E-2</v>
       </c>
       <c r="G73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66930816.240000002</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <f t="shared" si="3"/>
+        <v>21162.0978</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>20180718</v>
       </c>
@@ -51289,11 +51574,15 @@
         <v>8.5099999999999995E-2</v>
       </c>
       <c r="G74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68472256.430000007</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <f t="shared" si="3"/>
+        <v>21409.372899999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>20180719</v>
       </c>
@@ -51310,11 +51599,15 @@
         <v>9.69E-2</v>
       </c>
       <c r="G75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67486029.960000008</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <f t="shared" si="3"/>
+        <v>20877.2988</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>20180720</v>
       </c>
@@ -51331,11 +51624,15 @@
         <v>0.1045</v>
       </c>
       <c r="G76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87125532.25999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <f t="shared" si="3"/>
+        <v>26638.826499999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>20180721</v>
       </c>
@@ -51352,11 +51649,15 @@
         <v>7.7700000000000005E-2</v>
       </c>
       <c r="G77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58390050.82</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <f t="shared" si="3"/>
+        <v>17529.197700000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>20180722</v>
       </c>
@@ -51373,11 +51674,15 @@
         <v>7.1900000000000006E-2</v>
       </c>
       <c r="G78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47666940.75</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <f t="shared" si="3"/>
+        <v>14414.152500000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>20180723</v>
       </c>
@@ -51394,11 +51699,15 @@
         <v>7.9899999999999999E-2</v>
       </c>
       <c r="G79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62082578.559999995</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <f t="shared" si="3"/>
+        <v>20419.8832</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>20180724</v>
       </c>
@@ -51415,11 +51724,15 @@
         <v>8.3299999999999999E-2</v>
       </c>
       <c r="G80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65845212.789999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <f t="shared" si="3"/>
+        <v>21135.625700000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20180725</v>
       </c>
@@ -51436,11 +51749,15 @@
         <v>8.2699999999999996E-2</v>
       </c>
       <c r="G81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67763644.620000005</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <f t="shared" si="3"/>
+        <v>21168.140100000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>20180726</v>
       </c>
@@ -51457,11 +51774,15 @@
         <v>8.1100000000000005E-2</v>
       </c>
       <c r="G82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63449581.079999998</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <f t="shared" si="3"/>
+        <v>21038.313200000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>20180727</v>
       </c>
@@ -51478,11 +51799,15 @@
         <v>8.5900000000000004E-2</v>
       </c>
       <c r="G83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67006703.780000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <f t="shared" si="3"/>
+        <v>22160.9974</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>20180728</v>
       </c>
@@ -51499,11 +51824,15 @@
         <v>7.7700000000000005E-2</v>
       </c>
       <c r="G84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56165286.539999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <f t="shared" si="3"/>
+        <v>17810.238600000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>20180729</v>
       </c>
@@ -51520,11 +51849,15 @@
         <v>7.3499999999999996E-2</v>
       </c>
       <c r="G85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48955381.799999997</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <f t="shared" si="3"/>
+        <v>14910.577499999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>20180730</v>
       </c>
@@ -51541,11 +51874,15 @@
         <v>8.3900000000000002E-2</v>
       </c>
       <c r="G86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66932019.780000009</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <f t="shared" si="3"/>
+        <v>21518.168600000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>20180731</v>
       </c>
@@ -51562,11 +51899,15 @@
         <v>8.1500000000000003E-2</v>
       </c>
       <c r="G87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65171452.080000006</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <f t="shared" si="3"/>
+        <v>20807.276000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>20180801</v>
       </c>
@@ -51583,11 +51924,15 @@
         <v>9.0200000000000002E-2</v>
       </c>
       <c r="G88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71843178.599999994</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <f t="shared" si="3"/>
+        <v>23079.474000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>20180802</v>
       </c>
@@ -51604,11 +51949,15 @@
         <v>8.7900000000000006E-2</v>
       </c>
       <c r="G89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69057997.260000005</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <f t="shared" si="3"/>
+        <v>22929.769800000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>20180803</v>
       </c>
@@ -51625,11 +51974,15 @@
         <v>0.1188</v>
       </c>
       <c r="G90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>102253030.40000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <f t="shared" si="3"/>
+        <v>30808.166400000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>20180804</v>
       </c>
@@ -51646,11 +51999,15 @@
         <v>9.1700000000000004E-2</v>
       </c>
       <c r="G91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65012889.280000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <f t="shared" si="3"/>
+        <v>20540.5249</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>20180805</v>
       </c>
@@ -51667,11 +52024,15 @@
         <v>7.6600000000000001E-2</v>
       </c>
       <c r="G92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52485005.280000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <f t="shared" si="3"/>
+        <v>15466.459200000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>20180806</v>
       </c>
@@ -51688,11 +52049,15 @@
         <v>8.1199999999999994E-2</v>
       </c>
       <c r="G93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65438289.440000005</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <f t="shared" si="3"/>
+        <v>21141.881599999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>20180807</v>
       </c>
@@ -51709,11 +52074,15 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="G94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72209922.850000009</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <f t="shared" si="3"/>
+        <v>22521.362499999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>20180808</v>
       </c>
@@ -51730,11 +52099,15 @@
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="G95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61522941.959999993</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <f t="shared" si="3"/>
+        <v>20085.21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>20180809</v>
       </c>
@@ -51751,11 +52124,15 @@
         <v>8.2900000000000001E-2</v>
       </c>
       <c r="G96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66387225.019999996</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <f t="shared" si="3"/>
+        <v>21515.700199999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>20180810</v>
       </c>
@@ -51772,11 +52149,15 @@
         <v>9.0300000000000005E-2</v>
       </c>
       <c r="G97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71531047.539999992</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <f t="shared" si="3"/>
+        <v>23610.108900000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>20180811</v>
       </c>
@@ -51793,11 +52174,15 @@
         <v>7.4099999999999999E-2</v>
       </c>
       <c r="G98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54618922.549999997</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <f t="shared" si="3"/>
+        <v>17279.0085</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>20180812</v>
       </c>
@@ -51814,11 +52199,15 @@
         <v>7.1300000000000002E-2</v>
       </c>
       <c r="G99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49412974.240000002</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <f t="shared" si="3"/>
+        <v>14861.2016</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>20180813</v>
       </c>
@@ -51835,11 +52224,15 @@
         <v>8.3599999999999994E-2</v>
       </c>
       <c r="G100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65233091.990000002</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <f t="shared" si="3"/>
+        <v>21849.779599999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>20180814</v>
       </c>
@@ -51856,11 +52249,15 @@
         <v>8.6800000000000002E-2</v>
       </c>
       <c r="G101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66994890</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <f t="shared" si="3"/>
+        <v>21877.940000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>20180815</v>
       </c>
@@ -51877,11 +52274,15 @@
         <v>8.8499999999999995E-2</v>
       </c>
       <c r="G102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69392436.75</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <f t="shared" si="3"/>
+        <v>23328.511500000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>20180816</v>
       </c>
@@ -51898,11 +52299,15 @@
         <v>0.1067</v>
       </c>
       <c r="G103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87562094.700000003</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <f t="shared" si="3"/>
+        <v>27781.372299999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20180817</v>
       </c>
@@ -51919,11 +52324,15 @@
         <v>9.7600000000000006E-2</v>
       </c>
       <c r="G104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82508440.950000003</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <f t="shared" si="3"/>
+        <v>25439.342400000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>20180818</v>
       </c>
@@ -51940,11 +52349,15 @@
         <v>9.6600000000000005E-2</v>
       </c>
       <c r="G105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71734315.540000007</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <f t="shared" si="3"/>
+        <v>22468.580400000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>20180819</v>
       </c>
@@ -51961,11 +52374,15 @@
         <v>7.9200000000000007E-2</v>
       </c>
       <c r="G106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54530651.269999996</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <f t="shared" si="3"/>
+        <v>16174.778400000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>20180820</v>
       </c>
@@ -51982,11 +52399,15 @@
         <v>0.1081</v>
       </c>
       <c r="G107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91744730.88000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <f t="shared" si="3"/>
+        <v>28387.924800000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>20180821</v>
       </c>
@@ -52003,11 +52424,15 @@
         <v>0.1227</v>
       </c>
       <c r="G108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110942902.11</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <f t="shared" si="3"/>
+        <v>31977.951300000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>20180822</v>
       </c>
@@ -52024,11 +52449,15 @@
         <v>0.1056</v>
       </c>
       <c r="G109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92813462.820000008</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <f t="shared" si="3"/>
+        <v>27795.081600000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>20180823</v>
       </c>
@@ -52045,11 +52474,15 @@
         <v>0.1094</v>
       </c>
       <c r="G110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91771792.489999995</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <f t="shared" si="3"/>
+        <v>28313.9234</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>20180824</v>
       </c>
@@ -52066,11 +52499,15 @@
         <v>0.1321</v>
       </c>
       <c r="G111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111747390.3</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <f t="shared" si="3"/>
+        <v>33923.544199999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>20180825</v>
       </c>
@@ -52087,11 +52524,15 @@
         <v>8.2900000000000001E-2</v>
       </c>
       <c r="G112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60133804.339999996</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <f t="shared" si="3"/>
+        <v>19121.2166</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>20180826</v>
       </c>
@@ -52108,11 +52549,15 @@
         <v>8.4199999999999997E-2</v>
       </c>
       <c r="G113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55703567.199999996</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <f t="shared" si="3"/>
+        <v>17046.121599999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>20180827</v>
       </c>
@@ -52129,11 +52574,15 @@
         <v>0.10150000000000001</v>
       </c>
       <c r="G114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83415356.310000002</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <f t="shared" si="3"/>
+        <v>26082.556500000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>20180828</v>
       </c>
@@ -52150,11 +52599,15 @@
         <v>0.108</v>
       </c>
       <c r="G115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91841771.450000003</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <f t="shared" si="3"/>
+        <v>28555.955999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>20180829</v>
       </c>
@@ -52171,11 +52624,15 @@
         <v>9.7900000000000001E-2</v>
       </c>
       <c r="G116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84314068.159999996</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <f t="shared" si="3"/>
+        <v>25775.5036</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>20180830</v>
       </c>
@@ -52192,11 +52649,15 @@
         <v>0.10580000000000001</v>
       </c>
       <c r="G117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88493028.760000005</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <f t="shared" si="3"/>
+        <v>27624.697400000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>20180831</v>
       </c>
@@ -52213,11 +52674,15 @@
         <v>0.11269999999999999</v>
       </c>
       <c r="G118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94160918.159999996</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <f t="shared" si="3"/>
+        <v>29147.262899999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>20180901</v>
       </c>
@@ -52234,11 +52699,15 @@
         <v>0.1056</v>
       </c>
       <c r="G119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77328597.24000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <f t="shared" si="3"/>
+        <v>24469.315200000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>20180902</v>
       </c>
@@ -52246,11 +52715,15 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I120">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>20180903</v>
       </c>
@@ -52258,11 +52731,15 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>20180904</v>
       </c>
@@ -52279,11 +52756,15 @@
         <v>0.1011</v>
       </c>
       <c r="G122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80470219.61999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <f t="shared" si="3"/>
+        <v>26644.1973</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>20180905</v>
       </c>
@@ -52300,11 +52781,15 @@
         <v>9.1600000000000001E-2</v>
       </c>
       <c r="G123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72120196.49000001</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <f t="shared" si="3"/>
+        <v>24046.1908</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>20180906</v>
       </c>
@@ -52321,11 +52806,15 @@
         <v>9.9099999999999994E-2</v>
       </c>
       <c r="G124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80624318.390000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <f t="shared" si="3"/>
+        <v>25967.272099999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>20180907</v>
       </c>
@@ -52342,11 +52831,15 @@
         <v>0.1021</v>
       </c>
       <c r="G125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84855752.440000013</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <f t="shared" si="3"/>
+        <v>26763.166699999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>20180908</v>
       </c>
@@ -52363,11 +52856,15 @@
         <v>8.9300000000000004E-2</v>
       </c>
       <c r="G126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63419802</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <f t="shared" si="3"/>
+        <v>20575.434400000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>20180909</v>
       </c>
@@ -52384,11 +52881,15 @@
         <v>7.6399999999999996E-2</v>
       </c>
       <c r="G127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46975095.75</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <f t="shared" si="3"/>
+        <v>15224.609999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>20180910</v>
       </c>
@@ -52405,11 +52906,15 @@
         <v>8.8599999999999998E-2</v>
       </c>
       <c r="G128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67497237.820000008</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <f t="shared" si="3"/>
+        <v>22326.048200000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>20180911</v>
       </c>
@@ -52426,11 +52931,15 @@
         <v>9.7600000000000006E-2</v>
       </c>
       <c r="G129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78047637.739999995</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <f t="shared" si="3"/>
+        <v>24882.241600000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>20180912</v>
       </c>
@@ -52447,11 +52956,15 @@
         <v>7.3200000000000001E-2</v>
       </c>
       <c r="G130">
-        <f t="shared" ref="G130:G193" si="2">D130*C130</f>
+        <f t="shared" ref="G130:G193" si="4">D130*C130</f>
         <v>11953425.270000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I130">
+        <f t="shared" si="3"/>
+        <v>4030.1723999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>20180913</v>
       </c>
@@ -52459,11 +52972,15 @@
         <v>0</v>
       </c>
       <c r="G131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I131">
+        <f t="shared" ref="I131:I194" si="5">E131*C131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>20180914</v>
       </c>
@@ -52480,11 +52997,15 @@
         <v>0.13950000000000001</v>
       </c>
       <c r="G132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>56907475.359999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I132">
+        <f t="shared" si="5"/>
+        <v>17357.427000000003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>20180915</v>
       </c>
@@ -52501,11 +53022,15 @@
         <v>9.2100000000000001E-2</v>
       </c>
       <c r="G133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65068596.539999992</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I133">
+        <f t="shared" si="5"/>
+        <v>21300.980100000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>20180916</v>
       </c>
@@ -52522,11 +53047,15 @@
         <v>8.1600000000000006E-2</v>
       </c>
       <c r="G134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>52175831.25</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <f t="shared" si="5"/>
+        <v>16945.464</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>20180917</v>
       </c>
@@ -52543,11 +53072,15 @@
         <v>8.6300000000000002E-2</v>
       </c>
       <c r="G135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>68625872</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I135">
+        <f t="shared" si="5"/>
+        <v>22299.920000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>20180918</v>
       </c>
@@ -52564,11 +53097,15 @@
         <v>9.7299999999999998E-2</v>
       </c>
       <c r="G136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>79360026.790000007</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <f t="shared" si="5"/>
+        <v>25332.930700000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>20180919</v>
       </c>
@@ -52585,11 +53122,15 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="G137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>78444233.099999994</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I137">
+        <f t="shared" si="5"/>
+        <v>24422.73</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>20180920</v>
       </c>
@@ -52606,11 +53147,15 @@
         <v>0.105</v>
       </c>
       <c r="G138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>87653024.150000006</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I138">
+        <f t="shared" si="5"/>
+        <v>27539.924999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>20180921</v>
       </c>
@@ -52627,11 +53172,15 @@
         <v>0.10630000000000001</v>
       </c>
       <c r="G139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>86632485.940000013</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I139">
+        <f t="shared" si="5"/>
+        <v>27574.4326</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>20180922</v>
       </c>
@@ -52648,11 +53197,15 @@
         <v>0.10440000000000001</v>
       </c>
       <c r="G140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>73069294.859999999</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I140">
+        <f t="shared" si="5"/>
+        <v>23686.376400000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>20180923</v>
       </c>
@@ -52669,11 +53222,15 @@
         <v>6.8900000000000003E-2</v>
       </c>
       <c r="G141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40797847.119999997</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I141">
+        <f t="shared" si="5"/>
+        <v>12148.723600000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>20180924</v>
       </c>
@@ -52690,11 +53247,15 @@
         <v>9.6799999999999997E-2</v>
       </c>
       <c r="G142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>78292568.200000003</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I142">
+        <f t="shared" si="5"/>
+        <v>25090.947199999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>20180925</v>
       </c>
@@ -52711,11 +53272,15 @@
         <v>8.5099999999999995E-2</v>
       </c>
       <c r="G143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>67309640.420000002</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I143">
+        <f t="shared" si="5"/>
+        <v>22121.149299999997</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>20180926</v>
       </c>
@@ -52732,11 +53297,15 @@
         <v>8.6400000000000005E-2</v>
       </c>
       <c r="G144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>69783038</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I144">
+        <f t="shared" si="5"/>
+        <v>22481.280000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>20180927</v>
       </c>
@@ -52753,11 +53322,15 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="G145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>82029953.060000002</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I145">
+        <f t="shared" si="5"/>
+        <v>24492.71</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>20180928</v>
       </c>
@@ -52774,11 +53347,15 @@
         <v>0.10059999999999999</v>
       </c>
       <c r="G146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>84050987.099999994</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I146">
+        <f t="shared" si="5"/>
+        <v>26267.565399999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>20180929</v>
       </c>
@@ -52795,11 +53372,15 @@
         <v>7.7600000000000002E-2</v>
       </c>
       <c r="G147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>54362982.439999998</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I147">
+        <f t="shared" si="5"/>
+        <v>17597.895199999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>20180930</v>
       </c>
@@ -52816,11 +53397,15 @@
         <v>6.8500000000000005E-2</v>
       </c>
       <c r="G148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44802320.339999996</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I148">
+        <f t="shared" si="5"/>
+        <v>13840.973000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>20181001</v>
       </c>
@@ -52837,11 +53422,15 @@
         <v>9.7299999999999998E-2</v>
       </c>
       <c r="G149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>67498010.400000006</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I149">
+        <f t="shared" si="5"/>
+        <v>22202.6924</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>20181002</v>
       </c>
@@ -52858,11 +53447,15 @@
         <v>9.5899999999999999E-2</v>
       </c>
       <c r="G150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>54665556</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I150">
+        <f t="shared" si="5"/>
+        <v>18472.258000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>20181003</v>
       </c>
@@ -52879,11 +53472,15 @@
         <v>0.1132</v>
       </c>
       <c r="G151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>79713647.189999998</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I151">
+        <f t="shared" si="5"/>
+        <v>25240.090799999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>20181004</v>
       </c>
@@ -52900,11 +53497,15 @@
         <v>0.1046</v>
       </c>
       <c r="G152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>86084346.480000004</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I152">
+        <f t="shared" si="5"/>
+        <v>27059.810799999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>20181005</v>
       </c>
@@ -52921,11 +53522,15 @@
         <v>0.1079</v>
       </c>
       <c r="G153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>69570204.340000004</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I153">
+        <f t="shared" si="5"/>
+        <v>21370.5661</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>20181006</v>
       </c>
@@ -52942,11 +53547,15 @@
         <v>0.1145</v>
       </c>
       <c r="G154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>86870016.280000001</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I154">
+        <f t="shared" si="5"/>
+        <v>26306.146000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>20181007</v>
       </c>
@@ -52963,11 +53572,15 @@
         <v>8.6699999999999999E-2</v>
       </c>
       <c r="G155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>56725175.949999996</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I155">
+        <f t="shared" si="5"/>
+        <v>17757.9807</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>20181008</v>
       </c>
@@ -52984,11 +53597,15 @@
         <v>7.85E-2</v>
       </c>
       <c r="G156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>59641461.119999997</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I156">
+        <f t="shared" si="5"/>
+        <v>20090.348000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>20181009</v>
       </c>
@@ -53005,11 +53622,15 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>83266406.640000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I157">
+        <f t="shared" si="5"/>
+        <v>25615.656000000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>20181010</v>
       </c>
@@ -53026,11 +53647,15 @@
         <v>0.1041</v>
       </c>
       <c r="G158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>88368262.5</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I158">
+        <f t="shared" si="5"/>
+        <v>27016.552499999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>20181011</v>
       </c>
@@ -53047,11 +53672,15 @@
         <v>8.8499999999999995E-2</v>
       </c>
       <c r="G159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>69482445.75999999</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I159">
+        <f t="shared" si="5"/>
+        <v>22512.984</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>20181012</v>
       </c>
@@ -53068,11 +53697,15 @@
         <v>9.8900000000000002E-2</v>
       </c>
       <c r="G160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>83778476.560000002</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I160">
+        <f t="shared" si="5"/>
+        <v>25558.133600000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>20181013</v>
       </c>
@@ -53089,11 +53722,15 @@
         <v>8.8300000000000003E-2</v>
       </c>
       <c r="G161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>62189160.120000005</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I161">
+        <f t="shared" si="5"/>
+        <v>20185.644899999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>20181014</v>
       </c>
@@ -53110,11 +53747,15 @@
         <v>6.8900000000000003E-2</v>
       </c>
       <c r="G162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44601942.239999995</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I162">
+        <f t="shared" si="5"/>
+        <v>14005.4408</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>20181015</v>
       </c>
@@ -53131,11 +53772,15 @@
         <v>8.9899999999999994E-2</v>
       </c>
       <c r="G163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>69739821.659999996</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I163">
+        <f t="shared" si="5"/>
+        <v>23204.4486</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>20181016</v>
       </c>
@@ -53152,11 +53797,15 @@
         <v>8.3900000000000002E-2</v>
       </c>
       <c r="G164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>67668255.840000004</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I164">
+        <f t="shared" si="5"/>
+        <v>21446.685799999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>20181017</v>
       </c>
@@ -53173,11 +53822,15 @@
         <v>8.6400000000000005E-2</v>
       </c>
       <c r="G165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66276240.479999997</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I165">
+        <f t="shared" si="5"/>
+        <v>22210.329600000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>20181018</v>
       </c>
@@ -53194,11 +53847,15 @@
         <v>9.7500000000000003E-2</v>
       </c>
       <c r="G166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>83240872.299999997</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I166">
+        <f t="shared" si="5"/>
+        <v>25077.975000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>20181019</v>
       </c>
@@ -53215,11 +53872,15 @@
         <v>9.8400000000000001E-2</v>
       </c>
       <c r="G167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>81308681.88000001</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I167">
+        <f t="shared" si="5"/>
+        <v>24911.337599999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>20181020</v>
       </c>
@@ -53236,11 +53897,15 @@
         <v>8.5900000000000004E-2</v>
       </c>
       <c r="G168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>56165965.289999999</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I168">
+        <f t="shared" si="5"/>
+        <v>18490.2327</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>20181021</v>
       </c>
@@ -53257,11 +53922,15 @@
         <v>9.3200000000000005E-2</v>
       </c>
       <c r="G169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>51638648.399999999</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I169">
+        <f t="shared" si="5"/>
+        <v>17409.0144</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>20181022</v>
       </c>
@@ -53278,11 +53947,15 @@
         <v>8.0299999999999996E-2</v>
       </c>
       <c r="G170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60434007.230000004</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I170">
+        <f t="shared" si="5"/>
+        <v>20244.673899999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>20181023</v>
       </c>
@@ -53299,11 +53972,15 @@
         <v>8.9899999999999994E-2</v>
       </c>
       <c r="G171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66686197.760000005</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I171">
+        <f t="shared" si="5"/>
+        <v>22517.612599999997</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>20181024</v>
       </c>
@@ -53320,11 +53997,15 @@
         <v>8.4599999999999995E-2</v>
       </c>
       <c r="G172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65094472.710000001</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I172">
+        <f t="shared" si="5"/>
+        <v>21902.6862</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>20181025</v>
       </c>
@@ -53341,11 +54022,15 @@
         <v>8.8599999999999998E-2</v>
       </c>
       <c r="G173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>68785763.510000005</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I173">
+        <f t="shared" si="5"/>
+        <v>22536.030200000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>20181026</v>
       </c>
@@ -53362,11 +54047,15 @@
         <v>0.12039999999999999</v>
       </c>
       <c r="G174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>104867719.74000001</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I174">
+        <f t="shared" si="5"/>
+        <v>30811.082399999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>20181027</v>
       </c>
@@ -53383,11 +54072,15 @@
         <v>7.17E-2</v>
       </c>
       <c r="G175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>47517263.280000001</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I175">
+        <f t="shared" si="5"/>
+        <v>16149.9231</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>20181028</v>
       </c>
@@ -53404,11 +54097,15 @@
         <v>6.6400000000000001E-2</v>
       </c>
       <c r="G176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44026163.100000001</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I176">
+        <f t="shared" si="5"/>
+        <v>13812.1296</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>20181029</v>
       </c>
@@ -53425,11 +54122,15 @@
         <v>8.1900000000000001E-2</v>
       </c>
       <c r="G177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>58801227.100000001</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I177">
+        <f t="shared" si="5"/>
+        <v>20709.643500000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>20181030</v>
       </c>
@@ -53446,11 +54147,15 @@
         <v>8.5599999999999996E-2</v>
       </c>
       <c r="G178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>67718043.11999999</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I178">
+        <f t="shared" si="5"/>
+        <v>21987.0448</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>20181031</v>
       </c>
@@ -53467,11 +54172,15 @@
         <v>9.0399999999999994E-2</v>
       </c>
       <c r="G179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>64761460.080000006</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I179">
+        <f t="shared" si="5"/>
+        <v>20524.596799999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>20181101</v>
       </c>
@@ -53488,11 +54197,15 @@
         <v>9.9099999999999994E-2</v>
       </c>
       <c r="G180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32487802.739999998</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I180">
+        <f t="shared" si="5"/>
+        <v>10583.285399999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>20181102</v>
       </c>
@@ -53509,11 +54222,15 @@
         <v>9.7699999999999995E-2</v>
       </c>
       <c r="G181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>76306844.140000001</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I181">
+        <f t="shared" si="5"/>
+        <v>23738.0713</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>20181103</v>
       </c>
@@ -53530,11 +54247,15 @@
         <v>0.10009999999999999</v>
       </c>
       <c r="G182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>71501745</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I182">
+        <f t="shared" si="5"/>
+        <v>23275.852599999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>20181104</v>
       </c>
@@ -53551,11 +54272,15 @@
         <v>0.36409999999999998</v>
       </c>
       <c r="G183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>535031457.83999997</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I183">
+        <f t="shared" si="5"/>
+        <v>73848.218399999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>20181105</v>
       </c>
@@ -53572,11 +54297,15 @@
         <v>8.3299999999999999E-2</v>
       </c>
       <c r="G184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>64600973.25</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I184">
+        <f t="shared" si="5"/>
+        <v>21460.6623</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>20181106</v>
       </c>
@@ -53593,11 +54322,15 @@
         <v>8.4400000000000003E-2</v>
       </c>
       <c r="G185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65676238.800000004</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I185">
+        <f t="shared" si="5"/>
+        <v>22048.824800000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>20181107</v>
       </c>
@@ -53614,11 +54347,15 @@
         <v>8.5900000000000004E-2</v>
       </c>
       <c r="G186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70182983.519999996</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I186">
+        <f t="shared" si="5"/>
+        <v>22210.1322</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>20181108</v>
       </c>
@@ -53635,11 +54372,15 @@
         <v>7.9500000000000001E-2</v>
       </c>
       <c r="G187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>62202631.899999999</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I187">
+        <f t="shared" si="5"/>
+        <v>20699.494500000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>20181109</v>
       </c>
@@ -53656,11 +54397,15 @@
         <v>8.5400000000000004E-2</v>
       </c>
       <c r="G188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66017302.560000002</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I188">
+        <f t="shared" si="5"/>
+        <v>22420.574400000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>20181110</v>
       </c>
@@ -53677,11 +54422,15 @@
         <v>6.4500000000000002E-2</v>
       </c>
       <c r="G189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45155706.530000001</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I189">
+        <f t="shared" si="5"/>
+        <v>14857.639500000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>20181111</v>
       </c>
@@ -53698,11 +54447,15 @@
         <v>0.06</v>
       </c>
       <c r="G190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>39984667.200000003</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I190">
+        <f t="shared" si="5"/>
+        <v>12182.4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>20181112</v>
       </c>
@@ -53719,11 +54472,15 @@
         <v>6.2799999999999995E-2</v>
       </c>
       <c r="G191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44546119.660000004</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I191">
+        <f t="shared" si="5"/>
+        <v>16508.298799999997</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>20181113</v>
       </c>
@@ -53740,11 +54497,15 @@
         <v>8.1100000000000005E-2</v>
       </c>
       <c r="G192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65090117.579999998</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I192">
+        <f t="shared" si="5"/>
+        <v>21175.372200000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>20181114</v>
       </c>
@@ -53761,11 +54522,15 @@
         <v>7.5399999999999995E-2</v>
       </c>
       <c r="G193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>57259021.75</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I193">
+        <f t="shared" si="5"/>
+        <v>19763.470999999998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>20181115</v>
       </c>
@@ -53782,11 +54547,15 @@
         <v>9.7299999999999998E-2</v>
       </c>
       <c r="G194">
-        <f t="shared" ref="G194:G257" si="3">D194*C194</f>
+        <f t="shared" ref="G194:G257" si="6">D194*C194</f>
         <v>79735337.849999994</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I194">
+        <f t="shared" si="5"/>
+        <v>25193.207899999998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>20181116</v>
       </c>
@@ -53803,11 +54572,15 @@
         <v>7.8600000000000003E-2</v>
       </c>
       <c r="G195">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>61548207.240000002</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I195">
+        <f t="shared" ref="I195:I258" si="7">E195*C195</f>
+        <v>20372.648400000002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>20181117</v>
       </c>
@@ -53824,11 +54597,15 @@
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="G196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>46397806.560000002</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I196">
+        <f t="shared" si="7"/>
+        <v>15249.060000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>20181118</v>
       </c>
@@ -53845,11 +54622,15 @@
         <v>7.1199999999999999E-2</v>
       </c>
       <c r="G197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22465614.080000002</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I197">
+        <f t="shared" si="7"/>
+        <v>6916.0832</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>20181119</v>
       </c>
@@ -53866,11 +54647,15 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="G198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>56293317.020000003</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I198">
+        <f t="shared" si="7"/>
+        <v>18113.724999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>20181120</v>
       </c>
@@ -53887,11 +54672,15 @@
         <v>7.8600000000000003E-2</v>
       </c>
       <c r="G199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>61174598.100000001</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I199">
+        <f t="shared" si="7"/>
+        <v>19933.352999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>20181121</v>
       </c>
@@ -53908,11 +54697,15 @@
         <v>6.5299999999999997E-2</v>
       </c>
       <c r="G200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>47012765.280000001</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I200">
+        <f t="shared" si="7"/>
+        <v>17047.609799999998</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>20181122</v>
       </c>
@@ -53920,11 +54713,15 @@
         <v>0</v>
       </c>
       <c r="G201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I201">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>20181123</v>
       </c>
@@ -53941,11 +54738,15 @@
         <v>6.7900000000000002E-2</v>
       </c>
       <c r="G202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>46826554.240000002</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I202">
+        <f t="shared" si="7"/>
+        <v>17874.539199999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>20181124</v>
       </c>
@@ -53962,11 +54763,15 @@
         <v>0.09</v>
       </c>
       <c r="G203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60192128.780000001</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I203">
+        <f t="shared" si="7"/>
+        <v>20190.419999999998</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>20181125</v>
       </c>
@@ -53983,11 +54788,15 @@
         <v>5.5300000000000002E-2</v>
       </c>
       <c r="G204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>37739373.75</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I204">
+        <f t="shared" si="7"/>
+        <v>11175.300500000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>20181126</v>
       </c>
@@ -54004,11 +54813,15 @@
         <v>7.6600000000000001E-2</v>
       </c>
       <c r="G205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>59015598.25</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I205">
+        <f t="shared" si="7"/>
+        <v>19719.061399999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>20181127</v>
       </c>
@@ -54025,11 +54838,15 @@
         <v>8.7400000000000005E-2</v>
       </c>
       <c r="G206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>71422493.399999991</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I206">
+        <f t="shared" si="7"/>
+        <v>22393.191000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>20181128</v>
       </c>
@@ -54046,11 +54863,15 @@
         <v>6.6100000000000006E-2</v>
       </c>
       <c r="G207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50966314.560000002</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I207">
+        <f t="shared" si="7"/>
+        <v>16993.913400000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>20181129</v>
       </c>
@@ -54067,11 +54888,15 @@
         <v>6.8599999999999994E-2</v>
       </c>
       <c r="G208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>54872043.43</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I208">
+        <f t="shared" si="7"/>
+        <v>17686.5206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>20181130</v>
       </c>
@@ -54088,11 +54913,15 @@
         <v>9.1300000000000006E-2</v>
       </c>
       <c r="G209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>73139685.480000004</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I209">
+        <f t="shared" si="7"/>
+        <v>23689.702300000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>20181201</v>
       </c>
@@ -54109,11 +54938,15 @@
         <v>6.9500000000000006E-2</v>
       </c>
       <c r="G210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50580769.480000004</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I210">
+        <f t="shared" si="7"/>
+        <v>15893.677000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>20181202</v>
       </c>
@@ -54130,11 +54963,15 @@
         <v>6.9800000000000001E-2</v>
       </c>
       <c r="G211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>47209389.620000005</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I211">
+        <f t="shared" si="7"/>
+        <v>14131.638199999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>20181203</v>
       </c>
@@ -54151,11 +54988,15 @@
         <v>7.7600000000000002E-2</v>
       </c>
       <c r="G212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60726720.32</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I212">
+        <f t="shared" si="7"/>
+        <v>20235.286400000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>20181204</v>
       </c>
@@ -54172,11 +55013,15 @@
         <v>7.7600000000000002E-2</v>
       </c>
       <c r="G213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>59603556.32</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I213">
+        <f t="shared" si="7"/>
+        <v>19759.2104</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>20181205</v>
       </c>
@@ -54193,11 +55038,15 @@
         <v>7.1400000000000005E-2</v>
       </c>
       <c r="G214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>54342339.18</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I214">
+        <f t="shared" si="7"/>
+        <v>18481.675800000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>20181206</v>
       </c>
@@ -54214,11 +55063,15 @@
         <v>7.8399999999999997E-2</v>
       </c>
       <c r="G215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>66774662.780000001</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I215">
+        <f t="shared" si="7"/>
+        <v>20273.142400000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>20181207</v>
       </c>
@@ -54235,11 +55088,15 @@
         <v>8.2299999999999998E-2</v>
       </c>
       <c r="G216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>65472482.849999994</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I216">
+        <f t="shared" si="7"/>
+        <v>21386.724900000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>20181208</v>
       </c>
@@ -54256,11 +55113,15 @@
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="G217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44978574</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I217">
+        <f t="shared" si="7"/>
+        <v>14500.555199999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>20181209</v>
       </c>
@@ -54277,11 +55138,15 @@
         <v>5.7200000000000001E-2</v>
       </c>
       <c r="G218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38013102.399999999</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I218">
+        <f t="shared" si="7"/>
+        <v>11487.476000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>20181210</v>
       </c>
@@ -54298,11 +55163,15 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="G219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>49317442.719999999</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I219">
+        <f t="shared" si="7"/>
+        <v>18031.494000000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>20181211</v>
       </c>
@@ -54319,11 +55188,15 @@
         <v>7.5399999999999995E-2</v>
       </c>
       <c r="G220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>61353524.880000003</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I220">
+        <f t="shared" si="7"/>
+        <v>19489.618199999997</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>20181212</v>
       </c>
@@ -54340,11 +55213,15 @@
         <v>6.93E-2</v>
       </c>
       <c r="G221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>55103703.299999997</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I221">
+        <f t="shared" si="7"/>
+        <v>17745.651000000002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>20181213</v>
       </c>
@@ -54361,11 +55238,15 @@
         <v>7.2700000000000001E-2</v>
       </c>
       <c r="G222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58084749.959999993</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I222">
+        <f t="shared" si="7"/>
+        <v>18712.107599999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>20181214</v>
       </c>
@@ -54382,11 +55263,15 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="G223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>67427961.959999993</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I223">
+        <f t="shared" si="7"/>
+        <v>22325.449999999997</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>20181215</v>
       </c>
@@ -54403,11 +55288,15 @@
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="G224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45909873.899999999</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I224">
+        <f t="shared" si="7"/>
+        <v>14593.867199999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>20181216</v>
       </c>
@@ -54424,11 +55313,15 @@
         <v>5.9900000000000002E-2</v>
       </c>
       <c r="G225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>40342927.060000002</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I225">
+        <f t="shared" si="7"/>
+        <v>12151.972900000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>20181217</v>
       </c>
@@ -54445,11 +55338,15 @@
         <v>7.1199999999999999E-2</v>
       </c>
       <c r="G226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>54766024.099999994</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I226">
+        <f t="shared" si="7"/>
+        <v>18489.928</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>20181218</v>
       </c>
@@ -54466,11 +55363,15 @@
         <v>7.3499999999999996E-2</v>
       </c>
       <c r="G227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>55239008.939999998</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I227">
+        <f t="shared" si="7"/>
+        <v>18877.886999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>20181219</v>
       </c>
@@ -54487,11 +55388,15 @@
         <v>8.4699999999999998E-2</v>
       </c>
       <c r="G228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>67770797.899999991</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I228">
+        <f t="shared" si="7"/>
+        <v>21924.1715</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>20181220</v>
       </c>
@@ -54508,11 +55413,15 @@
         <v>8.1500000000000003E-2</v>
       </c>
       <c r="G229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>66142549.440000005</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I229">
+        <f t="shared" si="7"/>
+        <v>20945.826000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>20181221</v>
       </c>
@@ -54529,11 +55438,15 @@
         <v>8.3599999999999994E-2</v>
       </c>
       <c r="G230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>66083030.240000002</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I230">
+        <f t="shared" si="7"/>
+        <v>21791.343199999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>20181222</v>
       </c>
@@ -54550,11 +55463,15 @@
         <v>6.2899999999999998E-2</v>
       </c>
       <c r="G231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>42526232.310000002</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I231">
+        <f t="shared" si="7"/>
+        <v>14203.2603</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>20181223</v>
       </c>
@@ -54571,11 +55488,15 @@
         <v>5.4600000000000003E-2</v>
       </c>
       <c r="G232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>37648470.460000001</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I232">
+        <f t="shared" si="7"/>
+        <v>11143.9146</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>20181224</v>
       </c>
@@ -54592,11 +55513,15 @@
         <v>6.2E-2</v>
       </c>
       <c r="G233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>46027162.689999998</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I233">
+        <f t="shared" si="7"/>
+        <v>16101.585999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>20181225</v>
       </c>
@@ -54604,11 +55529,15 @@
         <v>0</v>
       </c>
       <c r="G234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I234">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>20181226</v>
       </c>
@@ -54625,11 +55554,15 @@
         <v>6.2E-2</v>
       </c>
       <c r="G235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>43758273.25</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I235">
+        <f t="shared" si="7"/>
+        <v>15888.802</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>20181227</v>
       </c>
@@ -54646,11 +55579,15 @@
         <v>6.1100000000000002E-2</v>
       </c>
       <c r="G236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>46314413.879999995</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I236">
+        <f t="shared" si="7"/>
+        <v>15614.471600000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>20181228</v>
       </c>
@@ -54667,11 +55604,15 @@
         <v>6.3299999999999995E-2</v>
       </c>
       <c r="G237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45440346</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I237">
+        <f t="shared" si="7"/>
+        <v>16177.580999999998</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>20181229</v>
       </c>
@@ -54688,11 +55629,15 @@
         <v>5.6399999999999999E-2</v>
       </c>
       <c r="G238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>36726787.75</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I238">
+        <f t="shared" si="7"/>
+        <v>12311.3868</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>20181230</v>
       </c>
@@ -54709,11 +55654,15 @@
         <v>5.5300000000000002E-2</v>
       </c>
       <c r="G239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>36630639</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I239">
+        <f t="shared" si="7"/>
+        <v>10846.984400000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>20181231</v>
       </c>
@@ -54730,11 +55679,15 @@
         <v>6.3399999999999998E-2</v>
       </c>
       <c r="G240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>48312847.140000001</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I240">
+        <f t="shared" si="7"/>
+        <v>16118.689199999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>20190101</v>
       </c>
@@ -54742,11 +55695,15 @@
         <v>0</v>
       </c>
       <c r="G241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I241">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>20190102</v>
       </c>
@@ -54763,11 +55720,15 @@
         <v>6.2600000000000003E-2</v>
       </c>
       <c r="G242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>41930372.769999996</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I242">
+        <f t="shared" si="7"/>
+        <v>15918.741800000002</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>20190103</v>
       </c>
@@ -54784,11 +55745,15 @@
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="G243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>46831448.449999996</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I243">
+        <f t="shared" si="7"/>
+        <v>16632.928799999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>20190104</v>
       </c>
@@ -54805,11 +55770,15 @@
         <v>6.7599999999999993E-2</v>
       </c>
       <c r="G244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>48731017.280000001</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I244">
+        <f t="shared" si="7"/>
+        <v>15294.905599999998</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>20190105</v>
       </c>
@@ -54826,11 +55795,15 @@
         <v>6.1199999999999997E-2</v>
       </c>
       <c r="G245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45035697.460000001</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I245">
+        <f t="shared" si="7"/>
+        <v>13323.913199999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>20190106</v>
       </c>
@@ -54847,11 +55820,15 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="G246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>42891990.600000001</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I246">
+        <f t="shared" si="7"/>
+        <v>11927.761500000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>20190107</v>
       </c>
@@ -54868,11 +55845,15 @@
         <v>7.2400000000000006E-2</v>
       </c>
       <c r="G247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>56063525.159999996</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I247">
+        <f t="shared" si="7"/>
+        <v>18056.849600000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>20190108</v>
       </c>
@@ -54889,11 +55870,15 @@
         <v>8.1900000000000001E-2</v>
       </c>
       <c r="G248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60519210.689999998</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I248">
+        <f t="shared" si="7"/>
+        <v>20910.953700000002</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>20190109</v>
       </c>
@@ -54910,11 +55895,15 @@
         <v>6.9500000000000006E-2</v>
       </c>
       <c r="G249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>52958503.350000001</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I249">
+        <f t="shared" si="7"/>
+        <v>17691.016500000002</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>20190110</v>
       </c>
@@ -54931,11 +55920,15 @@
         <v>6.6500000000000004E-2</v>
       </c>
       <c r="G250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>56707125.199999996</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I250">
+        <f t="shared" si="7"/>
+        <v>17282.419000000002</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>20190111</v>
       </c>
@@ -54952,11 +55945,15 @@
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="G251">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63197492.380000003</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I251">
+        <f t="shared" si="7"/>
+        <v>19957.645</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>20190112</v>
       </c>
@@ -54973,11 +55970,15 @@
         <v>0.1114</v>
       </c>
       <c r="G252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>90800463.600000009</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I252">
+        <f t="shared" si="7"/>
+        <v>24508.557000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>20190113</v>
       </c>
@@ -54994,11 +55995,15 @@
         <v>6.0400000000000002E-2</v>
       </c>
       <c r="G253">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>42653099.280000001</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I253">
+        <f t="shared" si="7"/>
+        <v>12260.837600000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>20190114</v>
       </c>
@@ -55015,11 +56020,15 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="G254">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>59202796.5</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I254">
+        <f t="shared" si="7"/>
+        <v>19342.194</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>20190115</v>
       </c>
@@ -55036,11 +56045,15 @@
         <v>7.4200000000000002E-2</v>
       </c>
       <c r="G255">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>61459143.199999996</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I255">
+        <f t="shared" si="7"/>
+        <v>19245.699199999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>20190116</v>
       </c>
@@ -55057,8 +56070,12 @@
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="G256">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>66386109.059999995</v>
+      </c>
+      <c r="I256">
+        <f t="shared" si="7"/>
+        <v>20993.499</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -55078,8 +56095,12 @@
         <v>7.46E-2</v>
       </c>
       <c r="G257">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63575346.049999997</v>
+      </c>
+      <c r="I257">
+        <f t="shared" si="7"/>
+        <v>19623.156999999999</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -55099,8 +56120,12 @@
         <v>8.2299999999999998E-2</v>
       </c>
       <c r="G258">
-        <f t="shared" ref="G258:G270" si="4">D258*C258</f>
+        <f t="shared" ref="G258:G270" si="8">D258*C258</f>
         <v>42889489.600000001</v>
+      </c>
+      <c r="I258">
+        <f t="shared" si="7"/>
+        <v>13487.982399999999</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -55120,8 +56145,12 @@
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="G259">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>45934073.919999994</v>
+      </c>
+      <c r="I259">
+        <f t="shared" ref="I259:I270" si="9">E259*C259</f>
+        <v>14039.342000000001</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -55141,8 +56170,12 @@
         <v>9.2899999999999996E-2</v>
       </c>
       <c r="G260">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>65970982</v>
+      </c>
+      <c r="I260">
+        <f t="shared" si="9"/>
+        <v>18727.896799999999</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -55162,8 +56195,12 @@
         <v>7.6300000000000007E-2</v>
       </c>
       <c r="G261">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>59421272.219999999</v>
+      </c>
+      <c r="I261">
+        <f t="shared" si="9"/>
+        <v>19786.3449</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -55183,8 +56220,12 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="G262">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>62835760.640000001</v>
+      </c>
+      <c r="I262">
+        <f t="shared" si="9"/>
+        <v>19533.367999999999</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -55204,8 +56245,12 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="G263">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>72333381.390000001</v>
+      </c>
+      <c r="I263">
+        <f t="shared" si="9"/>
+        <v>22781.351999999999</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -55225,8 +56270,12 @@
         <v>9.1200000000000003E-2</v>
       </c>
       <c r="G264">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>78354453.299999997</v>
+      </c>
+      <c r="I264">
+        <f t="shared" si="9"/>
+        <v>23533.430400000001</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -55246,8 +56295,12 @@
         <v>7.4899999999999994E-2</v>
       </c>
       <c r="G265">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>59010802.68</v>
+      </c>
+      <c r="I265">
+        <f t="shared" si="9"/>
+        <v>19322.851799999997</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -55267,8 +56320,12 @@
         <v>6.6699999999999995E-2</v>
       </c>
       <c r="G266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>48472191.600000001</v>
+      </c>
+      <c r="I266">
+        <f t="shared" si="9"/>
+        <v>15153.2395</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -55288,8 +56345,12 @@
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="G267">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>39647124</v>
+      </c>
+      <c r="I267">
+        <f t="shared" si="9"/>
+        <v>11914.161</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -55309,8 +56370,12 @@
         <v>7.8700000000000006E-2</v>
       </c>
       <c r="G268">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60464568.780000001</v>
+      </c>
+      <c r="I268">
+        <f t="shared" si="9"/>
+        <v>20397.6234</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -55330,8 +56395,12 @@
         <v>7.3099999999999998E-2</v>
       </c>
       <c r="G269">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>58576636.049999997</v>
+      </c>
+      <c r="I269">
+        <f t="shared" si="9"/>
+        <v>18743.497899999998</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -55351,8 +56420,12 @@
         <v>5.7799999999999997E-2</v>
       </c>
       <c r="G270">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>42825617.280000001</v>
+      </c>
+      <c r="I270">
+        <f t="shared" si="9"/>
+        <v>15059.4432</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -55365,8 +56438,42 @@
         <v>17064849071.529999</v>
       </c>
       <c r="I271">
+        <f>SUM(I2:I270)</f>
+        <v>5318005.6041000029</v>
+      </c>
+    </row>
+    <row r="273" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G273">
         <f>G271/C271</f>
         <v>274.20336183413121</v>
+      </c>
+      <c r="I273">
+        <f>I271/C271</f>
+        <v>8.5451386577439573E-2</v>
+      </c>
+      <c r="K273">
+        <f>G273/60</f>
+        <v>4.5700560305688533</v>
+      </c>
+      <c r="M273">
+        <f>I273*100</f>
+        <v>8.5451386577439568</v>
+      </c>
+    </row>
+    <row r="275" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G275">
+        <v>926.68</v>
+      </c>
+      <c r="I275">
+        <v>0.27960000000000002</v>
+      </c>
+      <c r="K275">
+        <f>G275/60</f>
+        <v>15.444666666666667</v>
+      </c>
+      <c r="M275">
+        <f>I275*100</f>
+        <v>27.96</v>
       </c>
     </row>
   </sheetData>
@@ -56437,7 +57544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>

--- a/doc/APC-GTFS.xlsx
+++ b/doc/APC-GTFS.xlsx
@@ -49787,8 +49787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="N273" sqref="N273"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="M273" sqref="M273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/APC-GTFS.xlsx
+++ b/doc/APC-GTFS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ro2_apc" sheetId="1" state="hidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="205">
   <si>
     <t>Date</t>
   </si>
@@ -643,6 +643,15 @@
   </si>
   <si>
     <t>20190130 1034 233705 166.62 0.0638</t>
+  </si>
+  <si>
+    <t>transfer risk average</t>
+  </si>
+  <si>
+    <t>attp average</t>
+  </si>
+  <si>
+    <t>for jan to jan</t>
   </si>
 </sst>
 </file>
@@ -11311,7 +11320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -39860,7 +39869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I271"/>
   <sheetViews>
-    <sheetView topLeftCell="A222" workbookViewId="0">
+    <sheetView topLeftCell="A255" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -45467,9 +45476,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I275"/>
+  <dimension ref="A2:I279"/>
   <sheetViews>
-    <sheetView topLeftCell="A259" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
       <selection activeCell="H279" sqref="H279"/>
     </sheetView>
   </sheetViews>
@@ -51003,12 +51012,43 @@
         <v>225.84962443626904</v>
       </c>
     </row>
-    <row r="275" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E274" t="s">
+        <v>202</v>
+      </c>
+      <c r="G274" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="275" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C275" t="s">
+        <v>204</v>
+      </c>
       <c r="E275">
         <v>7.1400000000000005E-2</v>
       </c>
       <c r="G275">
         <v>224.36</v>
+      </c>
+    </row>
+    <row r="276" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G276">
+        <f>G275/60</f>
+        <v>3.7393333333333336</v>
+      </c>
+    </row>
+    <row r="278" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E278">
+        <v>0.25750000000000001</v>
+      </c>
+      <c r="G278">
+        <v>778.17</v>
+      </c>
+    </row>
+    <row r="279" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G279">
+        <f>G278/60</f>
+        <v>12.9695</v>
       </c>
     </row>
   </sheetData>
@@ -58312,10 +58352,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G1:G9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58323,7 +58363,7 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20180901</v>
       </c>
@@ -58343,8 +58383,12 @@
         <f>D2*C2</f>
         <v>77328597.24000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>E2*C2</f>
+        <v>24469.315200000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20180908</v>
       </c>
@@ -58364,8 +58408,12 @@
         <f t="shared" ref="G3:G8" si="0">D3*C3</f>
         <v>63419802</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f t="shared" ref="H3:H8" si="1">E3*C3</f>
+        <v>20575.434400000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20180922</v>
       </c>
@@ -58385,8 +58433,12 @@
         <f t="shared" si="0"/>
         <v>73069294.859999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>23686.376400000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20181006</v>
       </c>
@@ -58406,8 +58458,12 @@
         <f t="shared" si="0"/>
         <v>86870016.280000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>26306.146000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20181013</v>
       </c>
@@ -58427,8 +58483,12 @@
         <f t="shared" si="0"/>
         <v>62189160.120000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>20185.644899999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20181103</v>
       </c>
@@ -58448,8 +58508,12 @@
         <f t="shared" si="0"/>
         <v>71501745</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>23275.852599999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20181124</v>
       </c>
@@ -58469,8 +58533,12 @@
         <f t="shared" si="0"/>
         <v>60192128.780000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>20190.419999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9">
         <f>SUM(C2:C8)</f>
         <v>1604221</v>
@@ -58479,9 +58547,23 @@
         <f>SUM(G2:G8)</f>
         <v>494570744.27999997</v>
       </c>
+      <c r="H9">
+        <f>SUM(H2:H8)</f>
+        <v>158689.18949999998</v>
+      </c>
       <c r="I9">
         <f>G9/C9</f>
         <v>308.2933986526794</v>
+      </c>
+      <c r="J9">
+        <f>H9/C9</f>
+        <v>9.8919780691064371E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f>I9/60</f>
+        <v>5.13822331087799</v>
       </c>
     </row>
   </sheetData>
@@ -58491,10 +58573,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I14"/>
+  <dimension ref="A2:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58502,7 +58584,7 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20180515</v>
       </c>
@@ -58522,8 +58604,12 @@
         <f>D2*C2</f>
         <v>74493083.280000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>E2*C2</f>
+        <v>21537.2703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20180521</v>
       </c>
@@ -58543,8 +58629,12 @@
         <f>D3*C3</f>
         <v>60662424.100000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f t="shared" ref="H3:H13" si="0">E3*C3</f>
+        <v>20269.129499999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20180621</v>
       </c>
@@ -58561,11 +58651,15 @@
         <v>0.1163</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G13" si="0">D4*C4</f>
+        <f t="shared" ref="G4:G13" si="1">D4*C4</f>
         <v>105474051.33999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>30197.760200000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20180720</v>
       </c>
@@ -58582,11 +58676,15 @@
         <v>0.1045</v>
       </c>
       <c r="G5">
+        <f t="shared" si="1"/>
+        <v>87125532.25999999</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
-        <v>87125532.25999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26638.826499999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20180817</v>
       </c>
@@ -58603,11 +58701,15 @@
         <v>9.7600000000000006E-2</v>
       </c>
       <c r="G6">
+        <f t="shared" si="1"/>
+        <v>82508440.950000003</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
-        <v>82508440.950000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25439.342400000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20180901</v>
       </c>
@@ -58624,11 +58726,15 @@
         <v>0.1056</v>
       </c>
       <c r="G7">
+        <f t="shared" si="1"/>
+        <v>77328597.24000001</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
-        <v>77328597.24000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24469.315200000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20180908</v>
       </c>
@@ -58645,11 +58751,15 @@
         <v>8.9300000000000004E-2</v>
       </c>
       <c r="G8">
+        <f t="shared" si="1"/>
+        <v>63419802</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>63419802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20575.434400000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20180909</v>
       </c>
@@ -58666,11 +58776,15 @@
         <v>7.6399999999999996E-2</v>
       </c>
       <c r="G9">
+        <f t="shared" si="1"/>
+        <v>46975095.75</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
-        <v>46975095.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15224.609999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20180924</v>
       </c>
@@ -58687,11 +58801,15 @@
         <v>9.6799999999999997E-2</v>
       </c>
       <c r="G10">
+        <f t="shared" si="1"/>
+        <v>78292568.200000003</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>78292568.200000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25090.947199999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20181101</v>
       </c>
@@ -58708,11 +58826,15 @@
         <v>9.9099999999999994E-2</v>
       </c>
       <c r="G11">
+        <f t="shared" si="1"/>
+        <v>32487802.739999998</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
-        <v>32487802.739999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10583.285399999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20181215</v>
       </c>
@@ -58729,11 +58851,15 @@
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="G12">
+        <f t="shared" si="1"/>
+        <v>45909873.899999999</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
-        <v>45909873.899999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14593.867199999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20181231</v>
       </c>
@@ -58750,11 +58876,15 @@
         <v>6.3399999999999998E-2</v>
       </c>
       <c r="G13">
+        <f t="shared" si="1"/>
+        <v>48312847.140000001</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
-        <v>48312847.140000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16118.689199999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14">
         <f>SUM(C2:C13)</f>
         <v>2767882</v>
@@ -58763,9 +58893,23 @@
         <f>SUM(G2:G13)</f>
         <v>802990118.89999998</v>
       </c>
+      <c r="H14">
+        <f>SUM(H2:H13)</f>
+        <v>250738.47749999998</v>
+      </c>
       <c r="I14">
         <f>G14/C14</f>
         <v>290.10995371189955</v>
+      </c>
+      <c r="J14">
+        <f>H14/C14</f>
+        <v>9.0588571875535151E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f>I14/60</f>
+        <v>4.8351658951983261</v>
       </c>
     </row>
   </sheetData>

--- a/doc/APC-GTFS.xlsx
+++ b/doc/APC-GTFS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ro2_apc" sheetId="1" state="hidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="207">
   <si>
     <t>Date</t>
   </si>
@@ -652,6 +652,12 @@
   </si>
   <si>
     <t>for jan to jan</t>
+  </si>
+  <si>
+    <t>ATTP difference (min, APC-GTFS - original GTFS)</t>
+  </si>
+  <si>
+    <t>TR difference (percentage, APC-GTFS - original GTFS)</t>
   </si>
 </sst>
 </file>
@@ -1430,20 +1436,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="h:mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1535,6 +1527,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1638,6 +1631,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1813,6 +1807,552 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hour_merge!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TR difference (percentage, APC-GTFS - original GTFS)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>hour_merge!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29166666666666702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41666666666666702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45833333333333298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70833333333333304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.79166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95833333333333304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>hour_merge!$M$2:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-1.7199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.80999999999999961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72000000000000064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7599999999999989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89999999999999947</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1399999999999988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7899999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A637-42CA-AF30-12CDB47F7816}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hour_merge!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ATTP difference (min, APC-GTFS - original GTFS)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>hour_merge!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29166666666666702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41666666666666702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45833333333333298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70833333333333304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.79166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95833333333333304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>hour_merge!$N$2:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-0.44950000000000312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.6833333333333496E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.8500000000000032E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50900000000000034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79816666666666602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69433333333333325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6116666666666668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68033333333333346</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77850000000000019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12899999999999956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0035000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2531666666666661</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5951666666666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6101666666666663</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3526666666666669</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.73499999999999988</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.81549999999999967</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1710000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3538333333333323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A637-42CA-AF30-12CDB47F7816}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="369472192"/>
+        <c:axId val="369475800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="369472192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369475800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="369475800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369472192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2406,7 +2946,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3026,6 +3566,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3173,6 +3714,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3729,7 +4310,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3837,6 +4418,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3847,6 +4433,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3878,6 +4469,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4734,6 +5328,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4763,6 +5860,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10717,7 +11844,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39869,7 +40996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I271"/>
   <sheetViews>
-    <sheetView topLeftCell="A255" workbookViewId="0">
+    <sheetView topLeftCell="A237" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -45478,7 +46605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+    <sheetView topLeftCell="A245" workbookViewId="0">
       <selection activeCell="H279" sqref="H279"/>
     </sheetView>
   </sheetViews>
@@ -51060,7 +52187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M275"/>
   <sheetViews>
-    <sheetView topLeftCell="A256" workbookViewId="0">
+    <sheetView topLeftCell="A232" workbookViewId="0">
       <selection activeCell="J273" sqref="J273"/>
     </sheetView>
   </sheetViews>
@@ -57756,15 +58883,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -57792,8 +58919,14 @@
       <c r="J1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0.20833333333333334</v>
       </c>
@@ -57821,8 +58954,16 @@
       <c r="J2">
         <v>879498</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f>H2-C2</f>
+        <v>-1.7199999999999998</v>
+      </c>
+      <c r="N2">
+        <f>G2-B2</f>
+        <v>-0.44950000000000312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.25</v>
       </c>
@@ -57850,8 +58991,16 @@
       <c r="J3">
         <v>3096151</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <f t="shared" ref="M3:M20" si="0">H3-C3</f>
+        <v>-0.80999999999999961</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N20" si="1">G3-B3</f>
+        <v>-3.6833333333333496E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.29166666666666702</v>
       </c>
@@ -57879,8 +59028,16 @@
       <c r="J4">
         <v>4810828</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0.72000000000000064</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>-9.8500000000000032E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.33333333333333298</v>
       </c>
@@ -57908,8 +59065,16 @@
       <c r="J5">
         <v>4228616</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>1.7599999999999989</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>0.50900000000000034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.375</v>
       </c>
@@ -57937,8 +59102,16 @@
       <c r="J6">
         <v>3574045</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>1.5899999999999999</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>0.79816666666666602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
@@ -57966,8 +59139,16 @@
       <c r="J7">
         <v>3384163</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>1.42</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>0.69433333333333325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0.45833333333333298</v>
       </c>
@@ -57995,8 +59176,16 @@
       <c r="J8">
         <v>3396647</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0.83999999999999897</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>0.6116666666666668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0.5</v>
       </c>
@@ -58024,8 +59213,16 @@
       <c r="J9">
         <v>3376232</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999947</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>0.68033333333333346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.54166666666666696</v>
       </c>
@@ -58053,8 +59250,16 @@
       <c r="J10">
         <v>3381493</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>1.1399999999999988</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>0.77850000000000019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0.58333333333333304</v>
       </c>
@@ -58082,8 +59287,16 @@
       <c r="J11">
         <v>3502940</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0.74000000000000021</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0.12899999999999956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0.625</v>
       </c>
@@ -58111,8 +59324,16 @@
       <c r="J12">
         <v>3985847</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0.73000000000000043</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>1.0035000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>0.66666666666666696</v>
       </c>
@@ -58140,8 +59361,16 @@
       <c r="J13">
         <v>4608436</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0.48000000000000043</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>0.2531666666666661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>0.70833333333333304</v>
       </c>
@@ -58169,8 +59398,16 @@
       <c r="J14">
         <v>4929696</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>1.3900000000000006</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>1.5951666666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>0.75</v>
       </c>
@@ -58198,8 +59435,16 @@
       <c r="J15">
         <v>4210819</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>2.8999999999999986</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>1.6101666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>0.79166666666666696</v>
       </c>
@@ -58227,8 +59472,16 @@
       <c r="J16">
         <v>3493282</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>2.7300000000000004</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>1.3526666666666669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0.83333333333333304</v>
       </c>
@@ -58256,8 +59509,16 @@
       <c r="J17">
         <v>2947461</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>2.16</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>0.73499999999999988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.875</v>
       </c>
@@ -58285,8 +59546,16 @@
       <c r="J18">
         <v>2231365</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>1.4100000000000001</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>0.81549999999999967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>0.91666666666666696</v>
       </c>
@@ -58314,8 +59583,16 @@
       <c r="J19">
         <v>1221673</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>1.9000000000000004</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>1.1710000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>0.95833333333333304</v>
       </c>
@@ -58342,6 +59619,14 @@
       </c>
       <c r="J20">
         <v>972169</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>1.7899999999999991</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>1.3538333333333323</v>
       </c>
     </row>
   </sheetData>

--- a/doc/APC-GTFS.xlsx
+++ b/doc/APC-GTFS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ro2_apc" sheetId="1" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>Average saving time (-2)</t>
+  </si>
+  <si>
+    <t>a_attp</t>
+  </si>
+  <si>
+    <t>b_attp</t>
   </si>
 </sst>
 </file>
@@ -5029,6 +5035,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6917,6 +6924,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18908,14 +18916,15 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX88"/>
+  <dimension ref="A1:AX93"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AT17" sqref="AT17"/>
+    <sheetView tabSelected="1" topLeftCell="F64" workbookViewId="0">
+      <selection activeCell="AG94" sqref="AG94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -32148,6 +32157,122 @@
       <c r="AX88">
         <f t="shared" si="43"/>
         <v>1.0848848814046741</v>
+      </c>
+    </row>
+    <row r="89" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <f>SUM(F2:F88)</f>
+        <v>2033208</v>
+      </c>
+      <c r="G89">
+        <f>SUM(G2:G88)</f>
+        <v>1481313</v>
+      </c>
+      <c r="H89">
+        <f>SUM(H2:H88)</f>
+        <v>367013444</v>
+      </c>
+      <c r="I89">
+        <f>SUM(I2:I88)</f>
+        <v>258578936</v>
+      </c>
+      <c r="J89">
+        <f t="shared" ref="J89:K89" si="44">SUM(J2:J88)</f>
+        <v>117365</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="44"/>
+        <v>130319</v>
+      </c>
+      <c r="AB89">
+        <f>SUM(AB2:AB88)</f>
+        <v>2035820</v>
+      </c>
+      <c r="AC89">
+        <f>SUM(AC2:AC88)</f>
+        <v>1479902</v>
+      </c>
+      <c r="AD89">
+        <f>SUM(AD2:AD88)</f>
+        <v>92131481</v>
+      </c>
+      <c r="AE89">
+        <f>SUM(AE2:AE88)</f>
+        <v>229811659</v>
+      </c>
+      <c r="AF89">
+        <f t="shared" ref="AF89" si="45">SUM(AF2:AF88)</f>
+        <v>10612</v>
+      </c>
+      <c r="AG89">
+        <f t="shared" ref="AG89" si="46">SUM(AG2:AG88)</f>
+        <v>263881</v>
+      </c>
+    </row>
+    <row r="91" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <f>H89/F89</f>
+        <v>180.50954157174277</v>
+      </c>
+      <c r="I91">
+        <f>I89/G89</f>
+        <v>174.56063370806845</v>
+      </c>
+      <c r="J91">
+        <f>J89/F89</f>
+        <v>5.7724049875861203E-2</v>
+      </c>
+      <c r="K91">
+        <f>K89/G89</f>
+        <v>8.797532999440362E-2</v>
+      </c>
+      <c r="AD91">
+        <f>AD89/AB89</f>
+        <v>45.255219518425008</v>
+      </c>
+      <c r="AE91">
+        <f>AE89/AC89</f>
+        <v>155.28843058526849</v>
+      </c>
+      <c r="AF91">
+        <f>AF89/AB89</f>
+        <v>5.2126415891385293E-3</v>
+      </c>
+      <c r="AG91">
+        <f>AG89/AC89</f>
+        <v>0.17830977997191705</v>
+      </c>
+    </row>
+    <row r="92" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AD92" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF92" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AD93">
+        <f>(AD91-H91)/60</f>
+        <v>-2.2542387008886293</v>
+      </c>
+      <c r="AE93">
+        <f>(AE91-I91)/60</f>
+        <v>-0.32120338537999943</v>
+      </c>
+      <c r="AF93">
+        <f>(AF91-J91)*100</f>
+        <v>-5.2511408286722672</v>
+      </c>
+      <c r="AG93">
+        <f>(AG91-K91)*100</f>
+        <v>9.0334449977513422</v>
       </c>
     </row>
   </sheetData>
@@ -35605,7 +35730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>

--- a/doc/APC-GTFS.xlsx
+++ b/doc/APC-GTFS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ro2_apc" sheetId="1" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -242,6 +242,45 @@
   <si>
     <t>b_attp</t>
   </si>
+  <si>
+    <t>weekdays</t>
+  </si>
+  <si>
+    <t>saturdays</t>
+  </si>
+  <si>
+    <t>sundays</t>
+  </si>
+  <si>
+    <t>headway</t>
+  </si>
+  <si>
+    <t>Frequency (hour^-1)</t>
+  </si>
+  <si>
+    <r>
+      <t>Frequency (hour</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>¯¹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -250,13 +289,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -323,1097 +368,11 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>hour_merge!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average Total Time Penalty (minutes) with APC-GTFS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>hour_merge!$A$2:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.20833333333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29166666666666702</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33333333333333298</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.41666666666666702</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45833333333333298</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.54166666666666696</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.58333333333333304</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.66666666666666696</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.70833333333333304</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.79166666666666696</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.83333333333333304</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.91666666666666696</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.95833333333333304</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>hour_merge!$G$2:$G$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.4001666666666668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.3188333333333331</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.887</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8763333333333336</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0614999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8333333333333335</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.9144999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.166666666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.323666666666667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.3763333333333332</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.5445000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.3559999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.7661666666666669</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.1588333333333329</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.1988333333333339</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.4961666666666664</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.7844999999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.6381666666666668</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.0398333333333332</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8AE5-42E9-8874-A72D6558212B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>hour_merge!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Transfer Risk (%) with APC-GTFS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>hour_merge!$A$2:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.20833333333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29166666666666702</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33333333333333298</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.41666666666666702</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45833333333333298</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.54166666666666696</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.58333333333333304</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.66666666666666696</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.70833333333333304</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.79166666666666696</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.83333333333333304</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.91666666666666696</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.95833333333333304</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>hour_merge!$H$2:$H$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.4500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.1900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.8299999999999992</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.2799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.42</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.2100000000000009</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.89</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.540000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.17</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.24</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.1800000000000006</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8AE5-42E9-8874-A72D6558212B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>hour_merge!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average Total Time Penalty (minutes) with original GTFS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>hour_merge!$A$2:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.20833333333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29166666666666702</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33333333333333298</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.41666666666666702</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45833333333333298</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.54166666666666696</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.58333333333333304</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.66666666666666696</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.70833333333333304</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.79166666666666696</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.83333333333333304</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.91666666666666696</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.95833333333333304</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>hour_merge!$B$2:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.8496666666666699</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.3556666666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9855</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3673333333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2633333333333336</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.1390000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3028333333333331</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.4863333333333335</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5451666666666668</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.2473333333333336</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.5409999999999995</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.1028333333333338</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.1710000000000003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.5486666666666666</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.846166666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.7611666666666665</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.9689999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4671666666666665</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.6860000000000008</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8AE5-42E9-8874-A72D6558212B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="453587528"/>
-        <c:axId val="453588840"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>hour_merge!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Transfer Risk (%) with original GTFS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>hour_merge!$A$2:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.20833333333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29166666666666702</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33333333333333298</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.41666666666666702</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45833333333333298</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.54166666666666696</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.58333333333333304</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.66666666666666696</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.70833333333333304</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.79166666666666696</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.83333333333333304</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.91666666666666696</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.95833333333333304</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>hour_merge!$C$2:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>3.17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.47</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.94</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.49</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.99</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.370000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.93</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.1400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.68</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.48</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.41</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.1800000000000015</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.4399999999999995</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.08</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.7700000000000005</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.5600000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8AE5-42E9-8874-A72D6558212B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="513100960"/>
-        <c:axId val="513098664"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="453587528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="453588840"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="453588840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Minutes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="453587528"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="513098664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Percentage</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="513100960"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="513100960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513098664"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.4798765278493693E-2"/>
-          <c:y val="0.87232138399152548"/>
-          <c:w val="0.87360788705023606"/>
-          <c:h val="0.11054065542578385"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>hour_merge!$M$1</c:f>
+              <c:f>hour_merge!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1502,7 +461,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hour_merge!$M$2:$M$20</c:f>
+              <c:f>hour_merge!$N$2:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1578,7 +537,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>hour_merge!$N$1</c:f>
+              <c:f>hour_merge!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1667,7 +626,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hour_merge!$N$2:$N$20</c:f>
+              <c:f>hour_merge!$O$2:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1867,6 +826,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1933,7 +893,1655 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1374038122814005E-2"/>
+          <c:y val="3.9605138922240886E-2"/>
+          <c:w val="0.8398484835783947"/>
+          <c:h val="0.6809461065188317"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hour_merge!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Total Time Penalty (minutes) with original GTFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>hour_merge!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29166666666666702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41666666666666702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45833333333333298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70833333333333304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.79166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95833333333333304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>hour_merge!$C$2:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.8496666666666699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3556666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3673333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2633333333333336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1390000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3028333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4863333333333335</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5451666666666668</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2473333333333336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1028333333333338</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1710000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5486666666666666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.846166666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.7611666666666665</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4671666666666665</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6860000000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6012-4BE4-8CE5-587C2EC701FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hour_merge!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transfer Risk (%) with original GTFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>hour_merge!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29166666666666702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41666666666666702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45833333333333298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70833333333333304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.79166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95833333333333304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>hour_merge!$D$2:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.1800000000000015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.4399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.08</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.7700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.5600000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6012-4BE4-8CE5-587C2EC701FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hour_merge!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Total Time Penalty (minutes) with APC-GTFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>hour_merge!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29166666666666702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41666666666666702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45833333333333298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70833333333333304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.79166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95833333333333304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>hour_merge!$H$2:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.4001666666666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3188333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.887</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8763333333333336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0614999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9144999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.323666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3763333333333332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5445000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7661666666666669</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.1588333333333329</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1988333333333339</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4961666666666664</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7844999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.6381666666666668</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.0398333333333332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6012-4BE4-8CE5-587C2EC701FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hour_merge!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transfer Risk (%) with APC-GTFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>hour_merge!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29166666666666702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41666666666666702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45833333333333298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70833333333333304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.79166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95833333333333304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>hour_merge!$I$2:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8299999999999992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.89</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.1800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6012-4BE4-8CE5-587C2EC701FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1143524448"/>
+        <c:axId val="1143518208"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hour_merge!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency (hour¯¹)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>hour_merge!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29166666666666702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41666666666666702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45833333333333298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70833333333333304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.79166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95833333333333304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>hour_merge!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.0360859989674611</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1201644303773604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2085789821750792</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.272867551821415</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.712843086216798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6076560844054693</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5898249928605863</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.558676938757336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6117904819893223</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.842083829879801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4606844124767013</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7383405138011661</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5942749515709442</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3394529196834188</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7277362590578496</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1944146780948004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0005006310298703</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5300761685304862</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0104171266403521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6012-4BE4-8CE5-587C2EC701FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1374017248"/>
+        <c:axId val="1374008096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1143524448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1143518208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:tickMarkSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1143518208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ATTP</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>: minutes / TR:  %</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0269394104010008E-2"/>
+              <c:y val="0.18360888161143768"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1143524448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1374008096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency: hour</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>¯¹</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.96364816246368135"/>
+              <c:y val="0.21723460486379226"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1374017248"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1374017248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1374008096"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0585945414587806E-2"/>
+          <c:y val="0.81140217078736221"/>
+          <c:w val="0.92843922015699154"/>
+          <c:h val="0.17328167312419282"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weekday_merge!$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ATTP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>weekday_merge!$G$13:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1189.3805781284848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>976.90633901625984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>999.18195383407874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>weekday_merge!$H$13:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.5537186008151318</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9356666666666662</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-497D-4DFA-A14C-49AADC79396C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1361239696"/>
+        <c:axId val="1361242192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1361239696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1361242192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1361242192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1361239696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1970,7 +2578,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2039,7 +2647,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-35D8-4EF1-B37D-C45272C74BC8}"/>
+              <c16:uniqueId val="{00000000-9CC2-43BE-92E4-D29EF2881AB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2128,7 +2736,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-35D8-4EF1-B37D-C45272C74BC8}"/>
+              <c16:uniqueId val="{00000001-9CC2-43BE-92E4-D29EF2881AB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2147,21 +2755,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="wdUpDiag">
+            <a:pattFill prst="ltDnDiag">
               <a:fgClr>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="bg1"/>
               </a:bgClr>
             </a:pattFill>
-            <a:ln cap="rnd">
+            <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>weekday_merge!$A$2:$A$8</c:f>
@@ -2223,7 +2830,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-35D8-4EF1-B37D-C45272C74BC8}"/>
+              <c16:uniqueId val="{00000002-9CC2-43BE-92E4-D29EF2881AB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2242,7 +2849,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="wdUpDiag">
+            <a:pattFill prst="ltDnDiag">
               <a:fgClr>
                 <a:schemeClr val="accent2"/>
               </a:fgClr>
@@ -2317,7 +2924,98 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-35D8-4EF1-B37D-C45272C74BC8}"/>
+              <c16:uniqueId val="{00000003-9CC2-43BE-92E4-D29EF2881AB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weekday_merge!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency (hour^-1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>weekday_merge!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Mon</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wed</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Thu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fri</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sat</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weekday_merge!$N$2:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0267855942836022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0267855942836022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0267855942836022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0267855942836022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0267855942836022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6851025080103206</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6029473772880065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9CC2-43BE-92E4-D29EF2881AB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2331,11 +3029,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="513125232"/>
-        <c:axId val="513117360"/>
+        <c:axId val="1374011424"/>
+        <c:axId val="1373995616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="513125232"/>
+        <c:axId val="1374011424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2378,7 +3076,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513117360"/>
+        <c:crossAx val="1373995616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2386,7 +3084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="513117360"/>
+        <c:axId val="1373995616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2437,7 +3135,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513125232"/>
+        <c:crossAx val="1374011424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2451,16 +3149,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14497895065097061"/>
-          <c:y val="0.82291557305336838"/>
-          <c:w val="0.8206031548036693"/>
-          <c:h val="0.14930664916885389"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2527,7 +3216,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3147,6 +3836,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3213,7 +3903,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5035,7 +5725,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5102,7 +5791,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6924,7 +7613,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6991,7 +7679,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8269,7 +8957,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8616,8 +9303,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8644,8 +9371,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8725,6 +9452,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8735,6 +9467,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8746,7 +9483,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8766,6 +9503,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8778,10 +9518,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8821,23 +9561,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8942,8 +9681,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9075,20 +9814,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9102,17 +9840,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9649,7 +10376,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9676,8 +10403,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9778,7 +10505,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9810,10 +10537,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9853,22 +10580,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9973,8 +10701,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10106,19 +10834,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10132,6 +10861,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -10655,7 +11395,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10763,11 +11503,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -10778,11 +11513,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -10814,9 +11544,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12202,27 +12929,541 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -12238,20 +13479,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12273,23 +13514,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -12298,6 +13537,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18918,7 +20187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F64" workbookViewId="0">
+    <sheetView topLeftCell="F64" workbookViewId="0">
       <selection activeCell="AG94" sqref="AG94"/>
     </sheetView>
   </sheetViews>
@@ -83699,755 +84968,816 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0.20833333333333334</v>
       </c>
       <c r="B2">
+        <v>2.0360859989674611</v>
+      </c>
+      <c r="C2">
         <v>1.8496666666666699</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3.17</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>905</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>3184248</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1.4001666666666668</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.4500000000000002</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>587</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>879498</v>
       </c>
-      <c r="M2">
+      <c r="N2">
+        <f>I2-D2</f>
+        <v>-1.7199999999999998</v>
+      </c>
+      <c r="O2">
         <f>H2-C2</f>
-        <v>-1.7199999999999998</v>
-      </c>
-      <c r="N2">
-        <f>G2-B2</f>
         <v>-0.44950000000000312</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.25</v>
       </c>
       <c r="B3">
+        <v>3.1201644303773604</v>
+      </c>
+      <c r="C3">
         <v>2.3556666666666666</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>940</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>5773901</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.3188333333333331</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4.1900000000000004</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>912</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3096151</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M20" si="0">H3-C3</f>
+      <c r="N3">
+        <f t="shared" ref="N3:N20" si="0">I3-D3</f>
         <v>-0.80999999999999961</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N20" si="1">G3-B3</f>
+      <c r="O3">
+        <f t="shared" ref="O3:O20" si="1">H3-C3</f>
         <v>-3.6833333333333496E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.29166666666666702</v>
       </c>
       <c r="B4">
+        <v>4.2085789821750792</v>
+      </c>
+      <c r="C4">
         <v>2.9855</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>6.47</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>943</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>6012791</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2.887</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>7.19</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>938</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>4810828</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <f t="shared" si="0"/>
         <v>0.72000000000000064</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <f t="shared" si="1"/>
         <v>-9.8500000000000032E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="B5">
+        <v>4.272867551821415</v>
+      </c>
+      <c r="C5">
         <v>3.3673333333333333</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>6.94</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>912</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>5135919</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3.8763333333333336</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>920</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>4228616</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <f t="shared" si="0"/>
         <v>1.7599999999999989</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <f t="shared" si="1"/>
         <v>0.50900000000000034</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.375</v>
       </c>
       <c r="B6">
+        <v>3.712843086216798</v>
+      </c>
+      <c r="C6">
         <v>3.2633333333333336</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>6.49</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>830</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4688646</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4.0614999999999997</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>8.08</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>818</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3574045</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <f t="shared" si="0"/>
         <v>1.5899999999999999</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <f t="shared" si="1"/>
         <v>0.79816666666666602</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
       <c r="B7">
+        <v>3.6076560844054693</v>
+      </c>
+      <c r="C7">
         <v>3.1390000000000002</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>5.99</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>760</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4587488</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3.8333333333333335</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>7.41</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>764</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>3384163</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <f t="shared" si="0"/>
         <v>1.42</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <f t="shared" si="1"/>
         <v>0.69433333333333325</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0.45833333333333298</v>
       </c>
       <c r="B8">
+        <v>3.5898249928605863</v>
+      </c>
+      <c r="C8">
         <v>3.3028333333333331</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>6.370000000000001</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>750</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>4563763</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>3.9144999999999999</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>7.21</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>749</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>3396647</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <f t="shared" si="0"/>
         <v>0.83999999999999897</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <f t="shared" si="1"/>
         <v>0.6116666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0.5</v>
       </c>
       <c r="B9">
+        <v>3.558676938757336</v>
+      </c>
+      <c r="C9">
         <v>3.4863333333333335</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>6.93</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>751</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>4590891</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>4.166666666666667</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>7.8299999999999992</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>746</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>3376232</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <f t="shared" si="0"/>
         <v>0.89999999999999947</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <f t="shared" si="1"/>
         <v>0.68033333333333346</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.54166666666666696</v>
       </c>
       <c r="B10">
+        <v>3.6117904819893223</v>
+      </c>
+      <c r="C10">
         <v>3.5451666666666668</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>7.1400000000000006</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>758</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>4680072</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>4.323666666666667</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>8.2799999999999994</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>749</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>3381493</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <f t="shared" si="0"/>
         <v>1.1399999999999988</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <f t="shared" si="1"/>
         <v>0.77850000000000019</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0.58333333333333304</v>
       </c>
       <c r="B11">
+        <v>3.842083829879801</v>
+      </c>
+      <c r="C11">
         <v>4.2473333333333336</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>7.68</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>781</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>5159662</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>4.3763333333333332</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>8.42</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>757</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>3502940</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <f t="shared" si="0"/>
         <v>0.74000000000000021</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <f t="shared" si="1"/>
         <v>0.12899999999999956</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0.625</v>
       </c>
       <c r="B12">
+        <v>4.4606844124767013</v>
+      </c>
+      <c r="C12">
         <v>4.5409999999999995</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>8.48</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>922</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>5930148</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>5.5445000000000002</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>9.2100000000000009</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>792</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>3985847</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f t="shared" si="0"/>
         <v>0.73000000000000043</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <f t="shared" si="1"/>
         <v>1.0035000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>0.66666666666666696</v>
       </c>
       <c r="B13">
+        <v>4.7383405138011661</v>
+      </c>
+      <c r="C13">
         <v>5.1028333333333338</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>9.41</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>942</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>6551410</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>5.3559999999999999</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>9.89</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>923</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>4608436</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <f t="shared" si="0"/>
         <v>0.48000000000000043</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <f t="shared" si="1"/>
         <v>0.2531666666666661</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>0.70833333333333304</v>
       </c>
       <c r="B14">
+        <v>4.5942749515709442</v>
+      </c>
+      <c r="C14">
         <v>5.1710000000000003</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>10.15</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>944</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>6034129</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>6.7661666666666669</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>11.540000000000001</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>938</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>4929696</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <f t="shared" si="0"/>
         <v>1.3900000000000006</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <f t="shared" si="1"/>
         <v>1.5951666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>0.75</v>
       </c>
       <c r="B15">
+        <v>4.3394529196834188</v>
+      </c>
+      <c r="C15">
         <v>4.5486666666666666</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>9.1800000000000015</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>937</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>5047147</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>6.1588333333333329</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>12.08</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>934</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>4210819</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <f t="shared" si="0"/>
         <v>2.8999999999999986</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <f t="shared" si="1"/>
         <v>1.6101666666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>0.79166666666666696</v>
       </c>
       <c r="B16">
+        <v>3.7277362590578496</v>
+      </c>
+      <c r="C16">
         <v>3.846166666666667</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>7.4399999999999995</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>834</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>4228414</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>5.1988333333333339</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>10.17</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>858</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>3493282</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <f t="shared" si="0"/>
         <v>2.7300000000000004</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <f t="shared" si="1"/>
         <v>1.3526666666666669</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0.83333333333333304</v>
       </c>
       <c r="B17">
+        <v>3.1944146780948004</v>
+      </c>
+      <c r="C17">
         <v>3.7611666666666665</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>6.08</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>821</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>3345541</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>4.4961666666666664</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>8.24</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>785</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>2947461</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <f t="shared" si="0"/>
         <v>2.16</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <f t="shared" si="1"/>
         <v>0.73499999999999988</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.875</v>
       </c>
       <c r="B18">
+        <v>3.0005006310298703</v>
+      </c>
+      <c r="C18">
         <v>3.9689999999999999</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>5.7700000000000005</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>775</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2129643</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>4.7844999999999995</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>7.1800000000000006</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>799</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2231365</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <f t="shared" si="0"/>
         <v>1.4100000000000001</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <f t="shared" si="1"/>
         <v>0.81549999999999967</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>0.91666666666666696</v>
       </c>
       <c r="B19">
+        <v>1.5300761685304862</v>
+      </c>
+      <c r="C19">
         <v>4.4671666666666665</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>6.1</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>679</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1303153</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>5.6381666666666668</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>8</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>726</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1221673</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <f t="shared" si="0"/>
         <v>1.9000000000000004</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <f t="shared" si="1"/>
         <v>1.1710000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>0.95833333333333304</v>
       </c>
       <c r="B20">
+        <v>1.0104171266403521</v>
+      </c>
+      <c r="C20">
         <v>4.6860000000000008</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>6.5600000000000005</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>596</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>584781</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>6.0398333333333332</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>8.35</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>615</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>972169</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <f t="shared" si="0"/>
         <v>1.7899999999999991</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <f t="shared" si="1"/>
         <v>1.3538333333333323</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -85020,15 +86350,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -85053,8 +86387,11 @@
       <c r="K1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -85085,8 +86422,45 @@
       <c r="K2">
         <v>9396880</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>1189.3805781284848</v>
+      </c>
+      <c r="N2">
+        <f>1/(M2/3600)</f>
+        <v>3.0267855942836022</v>
+      </c>
+      <c r="P2">
+        <f>B2*$E2</f>
+        <v>43385093.973333329</v>
+      </c>
+      <c r="Q2">
+        <f>C2*$E2</f>
+        <v>84616020.799999997</v>
+      </c>
+      <c r="R2">
+        <f>SUM(E2:E6)</f>
+        <v>63005757</v>
+      </c>
+      <c r="S2">
+        <v>63005757</v>
+      </c>
+      <c r="U2">
+        <f>$K2*H2</f>
+        <v>38608647.626666673</v>
+      </c>
+      <c r="V2">
+        <f>$K2*I2</f>
+        <v>76020759.200000003</v>
+      </c>
+      <c r="W2">
+        <f>SUM(K2:K6)</f>
+        <v>46341901</v>
+      </c>
+      <c r="X2">
+        <v>46341901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -85117,8 +86491,47 @@
       <c r="K3">
         <v>8920075</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>1189.3805781284848</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N8" si="0">1/(M3/3600)</f>
+        <v>3.0267855942836022</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P6" si="1">B3*$E3</f>
+        <v>45435894.807333328</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q6" si="2">C3*$E3</f>
+        <v>87403032.079999998</v>
+      </c>
+      <c r="R3">
+        <f>SUM(P2:P6)</f>
+        <v>243529873.91716668</v>
+      </c>
+      <c r="S3">
+        <f>SUM(Q2:Q6)</f>
+        <v>465627956.91999996</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U6" si="3">$K3*H3</f>
+        <v>40736495.845833331</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V6" si="4">$K3*I3</f>
+        <v>78050656.25</v>
+      </c>
+      <c r="W3">
+        <f>SUM(U2:U6)</f>
+        <v>211027976.58083335</v>
+      </c>
+      <c r="X3">
+        <f>SUM(V2:V6)</f>
+        <v>403993753.92999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -85149,8 +86562,47 @@
       <c r="K4">
         <v>9530556</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>1189.3805781284848</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>3.0267855942836022</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>49523443.066500001</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>94170214.320000008</v>
+      </c>
+      <c r="R4">
+        <f>R3/R2</f>
+        <v>3.8652003485517472</v>
+      </c>
+      <c r="S4">
+        <f>S3/S2</f>
+        <v>7.3902446235190853</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="3"/>
+        <v>41577050.549999997</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="4"/>
+        <v>80056670.400000006</v>
+      </c>
+      <c r="W4">
+        <f>W3/W2</f>
+        <v>4.5537186008151318</v>
+      </c>
+      <c r="X4">
+        <f>X3/X2</f>
+        <v>8.7176776354081795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -85181,8 +86633,31 @@
       <c r="K5">
         <v>9085773</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>1189.3805781284848</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>3.0267855942836022</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>50883565.798</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>96386809.680000007</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="3"/>
+        <v>42910591.583499998</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="4"/>
+        <v>80954237.430000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -85213,8 +86688,31 @@
       <c r="K6">
         <v>9408617</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>1189.3805781284848</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>3.0267855942836022</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>54301876.272000007</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>103051880.03999999</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="3"/>
+        <v>47195190.974833332</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="4"/>
+        <v>88911430.649999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -85245,8 +86743,15 @@
       <c r="K7">
         <v>8590184</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>976.90633901625984</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>3.6851025080103206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -85276,6 +86781,84 @@
       </c>
       <c r="K8">
         <v>7302196</v>
+      </c>
+      <c r="M8">
+        <v>999.18195383407874</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>3.6029473772880065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>3.8652003485517472</v>
+      </c>
+      <c r="D13">
+        <v>7.3902446235190853</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13">
+        <v>1189.3805781284848</v>
+      </c>
+      <c r="H13">
+        <v>4.5537186008151318</v>
+      </c>
+      <c r="I13">
+        <v>8.7176776354081795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>3.5513333333333335</v>
+      </c>
+      <c r="D14">
+        <v>6.8900000000000006</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14">
+        <v>976.90633901625984</v>
+      </c>
+      <c r="H14">
+        <v>4.3475000000000001</v>
+      </c>
+      <c r="I14">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>3.1508333333333334</v>
+      </c>
+      <c r="D15">
+        <v>5.81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15">
+        <v>999.18195383407874</v>
+      </c>
+      <c r="H15">
+        <v>4.9356666666666662</v>
+      </c>
+      <c r="I15">
+        <v>7.7700000000000005</v>
       </c>
     </row>
   </sheetData>
